--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>470.855018057662</v>
+        <v>471.8052984308276</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.843081883937276</v>
+        <v>6.843501551715733</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.3910321596268</v>
+        <v>539.3829170479321</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>958.9723770747603</v>
+        <v>958.9563701232117</v>
       </c>
       <c r="E5" t="n">
-        <v>477.6980999415993</v>
+        <v>478.6487999825434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792736636341662</v>
+        <v>0.7792756386602614</v>
       </c>
       <c r="G5" t="n">
-        <v>0.122031963499236</v>
+        <v>0.1220351733783034</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098640772562288</v>
+        <v>0.03098470197062145</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117654301939977</v>
+        <v>0.06117312433626675</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531422121575169</v>
+        <v>0.006531361654546868</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.4569586668617</v>
+        <v>465.4747139970217</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>874.4537543430848</v>
+        <v>874.467413562912</v>
       </c>
       <c r="E6" t="n">
-        <v>477.6980999415993</v>
+        <v>478.6487999825434</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792736636341662</v>
+        <v>0.7792756386602614</v>
       </c>
       <c r="G6" t="n">
-        <v>0.122031963499236</v>
+        <v>0.1220351733783034</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098640772562288</v>
+        <v>0.03098470197062145</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117654301939977</v>
+        <v>0.06117312433626675</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531422121575169</v>
+        <v>0.006531361654546868</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.971274694141</v>
+        <v>299.1067375477792</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>689.4235731284748</v>
+        <v>689.5651340672745</v>
       </c>
       <c r="E7" t="n">
-        <v>477.6980999415993</v>
+        <v>478.6487999825434</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792736636341662</v>
+        <v>0.7792756386602614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.122031963499236</v>
+        <v>0.1220351733783034</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098640772562288</v>
+        <v>0.03098470197062145</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117654301939977</v>
+        <v>0.06117312433626675</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531422121575169</v>
+        <v>0.006531361654546868</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.5779618969106</v>
+        <v>229.6276823113556</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.3703571758427</v>
+        <v>614.4178167006357</v>
       </c>
       <c r="E8" t="n">
-        <v>477.6980999415993</v>
+        <v>478.6487999825434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792736636341662</v>
+        <v>0.7792756386602614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.122031963499236</v>
+        <v>0.1220351733783034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098640772562288</v>
+        <v>0.03098470197062145</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117654301939977</v>
+        <v>0.06117312433626675</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531422121575169</v>
+        <v>0.006531361654546868</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228.6564856901294</v>
+        <v>228.7062650884936</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.3811190818052</v>
+        <v>613.4286339352145</v>
       </c>
       <c r="E9" t="n">
-        <v>477.6980999415993</v>
+        <v>478.6487999825434</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792736636341662</v>
+        <v>0.7792756386602614</v>
       </c>
       <c r="G9" t="n">
-        <v>0.122031963499236</v>
+        <v>0.1220351733783034</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098640772562288</v>
+        <v>0.03098470197062145</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117654301939977</v>
+        <v>0.06117312433626675</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531422121575169</v>
+        <v>0.006531361654546868</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.4855231877221</v>
+        <v>168.5619723642614</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1626349357159</v>
+        <v>549.2379880921749</v>
       </c>
       <c r="E10" t="n">
-        <v>477.6980999415993</v>
+        <v>478.6487999825434</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792736636341662</v>
+        <v>0.7792756386602614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.122031963499236</v>
+        <v>0.1220351733783034</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098640772562288</v>
+        <v>0.03098470197062145</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117654301939977</v>
+        <v>0.06117312433626675</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531422121575169</v>
+        <v>0.006531361654546868</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.3986017794485</v>
+        <v>101.4323292821562</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.3194630797061</v>
+        <v>478.3492475292215</v>
       </c>
       <c r="E11" t="n">
-        <v>477.6980999415993</v>
+        <v>478.6487999825434</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792736636341662</v>
+        <v>0.7792756386602614</v>
       </c>
       <c r="G11" t="n">
-        <v>0.122031963499236</v>
+        <v>0.1220351733783034</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098640772562288</v>
+        <v>0.03098470197062145</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117654301939977</v>
+        <v>0.06117312433626675</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531422121575169</v>
+        <v>0.006531361654546868</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.486619201195645</v>
+        <v>6.487017008077987</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3564626827416358</v>
+        <v>0.3564845436377505</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986962036092831</v>
+        <v>5.986942602137779</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986962036092831</v>
+        <v>5.986942602137779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986962036092831</v>
+        <v>5.986942602137779</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986962036092831</v>
+        <v>5.986942602137779</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381349487120267</v>
+        <v>2.381341757149939</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6683898454538435</v>
+        <v>0.6692976459514501</v>
       </c>
       <c r="C2" t="n">
-        <v>0.695447503122389</v>
+        <v>0.6960755986825751</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9610931701572538</v>
+        <v>0.9615301085373398</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.97190172488756</v>
+        <v>55.08776324217418</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.81699881052815</v>
+        <v>34.88017123916577</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488350235418942</v>
+        <v>0.8488298177782987</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.2537233751326</v>
+        <v>14.27707838441755</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7608300161914685</v>
+        <v>0.7605374865868925</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.496473304171069</v>
+        <v>5.5098476785013</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7529013237639277</v>
+        <v>0.7520919835669274</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4047062350557333</v>
+        <v>0.4206659400895536</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2145140597828854</v>
+        <v>0.2188235188343545</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07983292135960168</v>
+        <v>0.08085045916733177</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08927809840000132</v>
+        <v>0.0904106703997499</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8942049930534867</v>
+        <v>0.894257932275607</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42382.63205363644</v>
+        <v>42379.78377107183</v>
       </c>
       <c r="C2" t="n">
-        <v>42810.73944811762</v>
+        <v>42807.86239502205</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91631.63443638942</v>
+        <v>91582.46235787394</v>
       </c>
       <c r="C3" t="n">
-        <v>92557.20650140345</v>
+        <v>92507.5377352262</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40377.35378058035</v>
+        <v>40392.81953206929</v>
       </c>
       <c r="C4" t="n">
-        <v>40785.20583897005</v>
+        <v>40800.827810171</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.6664217786716</v>
+        <v>515.6964045124973</v>
       </c>
       <c r="C5" t="n">
-        <v>520.8751735138097</v>
+        <v>520.9054591035326</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33419.16805904282</v>
+        <v>33430.85041393877</v>
       </c>
       <c r="C6" t="n">
-        <v>33756.73541317457</v>
+        <v>33768.53577165533</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38285.66040212105</v>
+        <v>38308.6431450321</v>
       </c>
       <c r="C7" t="n">
-        <v>38672.38424456672</v>
+        <v>38695.59913639606</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.01518444670741</v>
+        <v>67.16365512578447</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.67575821958761</v>
+        <v>80.53950080946881</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.141557557542451</v>
+        <v>7.129344288584178</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.4731895577836</v>
+        <v>512.4118740597385</v>
       </c>
       <c r="C3" t="n">
-        <v>7.204016529126219</v>
+        <v>7.217379805373081</v>
       </c>
       <c r="D3" t="n">
-        <v>3439.279327121171</v>
+        <v>3438.980931978533</v>
       </c>
       <c r="E3" t="n">
-        <v>59.28553862432618</v>
+        <v>59.39507672433735</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.0422348197487</v>
+        <v>291.168277499893</v>
       </c>
       <c r="C4" t="n">
-        <v>7.555419983944918</v>
+        <v>7.569252754383641</v>
       </c>
       <c r="D4" t="n">
-        <v>2765.113586459855</v>
+        <v>2764.918959180459</v>
       </c>
       <c r="E4" t="n">
-        <v>59.28553862432618</v>
+        <v>59.39507672433735</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.873481506677</v>
+        <v>289.9673314633502</v>
       </c>
       <c r="C5" t="n">
-        <v>7.555419983944918</v>
+        <v>7.569252754383641</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.240104972279</v>
+        <v>1289.74330804768</v>
       </c>
       <c r="E5" t="n">
-        <v>59.28553862432618</v>
+        <v>59.39507672433735</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.5512731524663</v>
+        <v>162.466967588129</v>
       </c>
       <c r="C6" t="n">
-        <v>7.555419983944918</v>
+        <v>7.569252754383641</v>
       </c>
       <c r="D6" t="n">
-        <v>690.5626569939426</v>
+        <v>690.2066796443723</v>
       </c>
       <c r="E6" t="n">
-        <v>59.28553862432618</v>
+        <v>59.39507672433735</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.5403962382318</v>
+        <v>157.6073937253854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5805114097375047</v>
+        <v>0.5815140217093431</v>
       </c>
       <c r="D7" t="n">
-        <v>664.7971270452452</v>
+        <v>665.0876934864076</v>
       </c>
       <c r="E7" t="n">
-        <v>59.28553862432618</v>
+        <v>59.39507672433735</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.058207565304</v>
+        <v>171.1292197759197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5738833217086502</v>
+        <v>0.5748903038891673</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.293563251061</v>
+        <v>2787.385916735348</v>
       </c>
       <c r="E8" t="n">
-        <v>14.35384229347617</v>
+        <v>14.37495446816109</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.54039611669</v>
+        <v>157.6073936037099</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5805114097375047</v>
+        <v>0.5815140217093431</v>
       </c>
       <c r="D9" t="n">
-        <v>2754.70331036019</v>
+        <v>2754.778726320485</v>
       </c>
       <c r="E9" t="n">
-        <v>14.35384229347617</v>
+        <v>14.37495446816109</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.3697526090839</v>
+        <v>156.4237529282242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5805114097375047</v>
+        <v>0.5815140217093431</v>
       </c>
       <c r="D10" t="n">
-        <v>659.7325796068985</v>
+        <v>659.9667088502188</v>
       </c>
       <c r="E10" t="n">
-        <v>73.63938091780236</v>
+        <v>73.77003119249844</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.3697526090839</v>
+        <v>156.4237529282242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5805114097375047</v>
+        <v>0.5815140217093431</v>
       </c>
       <c r="D11" t="n">
-        <v>659.7325796068985</v>
+        <v>659.9667088502188</v>
       </c>
       <c r="E11" t="n">
-        <v>82.09936634771653</v>
+        <v>82.26864317428009</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5805114097375047</v>
+        <v>0.5815140217093431</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6510863163393</v>
+        <v>251.651928202362</v>
       </c>
       <c r="E12" t="n">
-        <v>82.09501059118999</v>
+        <v>82.27030406995343</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.77180877369966</v>
+        <v>48.72441188724969</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>204.7980284036989</v>
+        <v>204.599927389603</v>
       </c>
       <c r="E13" t="n">
-        <v>73.64233048781836</v>
+        <v>73.77127528403557</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.39969611442962</v>
+        <v>48.3485969027156</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.2427547477455</v>
+        <v>203.0291845092211</v>
       </c>
       <c r="E14" t="n">
-        <v>67.58255560793879</v>
+        <v>67.7090131893374</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.24360770753532</v>
+        <v>78.17956916757311</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0441415423912691</v>
+        <v>0.04402589484071415</v>
       </c>
       <c r="D15" t="n">
-        <v>327.6395289979924</v>
+        <v>327.3707589838939</v>
       </c>
       <c r="E15" t="n">
-        <v>63.14986553658804</v>
+        <v>63.15526111411219</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.12773425789504</v>
+        <v>50.114539235167</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04414172096920733</v>
+        <v>0.04402079242270532</v>
       </c>
       <c r="D16" t="n">
-        <v>209.9032970703169</v>
+        <v>209.8480177111314</v>
       </c>
       <c r="E16" t="n">
-        <v>63.15043076431378</v>
+        <v>63.15170354700736</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>662.4661680923812</v>
+        <v>662.4356205039981</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.45146848454338</v>
+        <v>83.44762037692368</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.96620127666408</v>
+        <v>63.92719716157339</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>267.8264847453925</v>
+        <v>267.6631745155078</v>
       </c>
       <c r="E19" t="n">
-        <v>83.45146848454338</v>
+        <v>83.44762037692368</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.3671674303181</v>
+        <v>103.3799902453517</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1142145966607201</v>
+        <v>0.1142795229158891</v>
       </c>
       <c r="D20" t="n">
-        <v>2643.928684959008</v>
+        <v>2643.726213046432</v>
       </c>
       <c r="E20" t="n">
-        <v>25.89184006052371</v>
+        <v>25.96893093526601</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.9034728145557</v>
+        <v>101.9195845916441</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1085038668276841</v>
+        <v>0.1085655467700947</v>
       </c>
       <c r="D21" t="n">
-        <v>427.197996381934</v>
+        <v>427.2660004689366</v>
       </c>
       <c r="E21" t="n">
-        <v>25.89184006052371</v>
+        <v>25.96893093526601</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.7779168792885</v>
+        <v>75.7184828764955</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>317.282137973581</v>
+        <v>317.0332878038867</v>
       </c>
       <c r="E22" t="n">
-        <v>662.4661680923812</v>
+        <v>662.4356205039981</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>662.4661680923812</v>
+        <v>662.4356205039981</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.55372862283802</v>
+        <v>45.54881523882231</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>662.4661680923812</v>
+        <v>662.4356205039981</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.50112256664869</v>
+        <v>79.43655729980924</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04646478146449379</v>
+        <v>0.04634304720075173</v>
       </c>
       <c r="D25" t="n">
-        <v>2531.277610173714</v>
+        <v>2530.796001811035</v>
       </c>
       <c r="E25" t="n">
-        <v>37.25806057551027</v>
+        <v>37.1829194012458</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>509.7595442662787</v>
+        <v>509.693844993569</v>
       </c>
       <c r="C26" t="n">
-        <v>6.623789755836484</v>
+        <v>6.636257571362109</v>
       </c>
       <c r="D26" t="n">
-        <v>3439.279327121171</v>
+        <v>3438.980931978533</v>
       </c>
       <c r="E26" t="n">
-        <v>53.22827023243264</v>
+        <v>53.33394476117915</v>
       </c>
       <c r="F26" t="n">
-        <v>6.859955243708429</v>
+        <v>6.858749226656256</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.584011589614</v>
+        <v>192.506059999284</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4319515828901427</v>
+        <v>0.4326885427974083</v>
       </c>
       <c r="D27" t="n">
-        <v>2843.605232020813</v>
+        <v>2843.399493957126</v>
       </c>
       <c r="E27" t="n">
-        <v>53.22827023243264</v>
+        <v>53.33394476117915</v>
       </c>
       <c r="F27" t="n">
-        <v>7.100743604978213</v>
+        <v>7.099534494974992</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.4178070890515</v>
+        <v>168.4877740907615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4905863649327755</v>
+        <v>0.4914959362031268</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.293563251061</v>
+        <v>2787.385916735348</v>
       </c>
       <c r="E28" t="n">
-        <v>14.35384229347617</v>
+        <v>14.37495446816109</v>
       </c>
       <c r="F28" t="n">
-        <v>6.919550853062623</v>
+        <v>6.91893591165055</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.9751120804744</v>
+        <v>186.9305144870335</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4319515828901427</v>
+        <v>0.4326885427974083</v>
       </c>
       <c r="D29" t="n">
-        <v>2831.645132186798</v>
+        <v>2831.507517698074</v>
       </c>
       <c r="E29" t="n">
-        <v>67.58211252590881</v>
+        <v>67.70889922934023</v>
       </c>
       <c r="F29" t="n">
-        <v>7.074907448777815</v>
+        <v>7.073842103175112</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>103.36626531714</v>
+        <v>103.3802218949791</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1142232407935066</v>
+        <v>0.1142789855108964</v>
       </c>
       <c r="D30" t="n">
-        <v>2643.926555731099</v>
+        <v>2643.726756871932</v>
       </c>
       <c r="E30" t="n">
-        <v>67.58211252590881</v>
+        <v>67.70889922934023</v>
       </c>
       <c r="F30" t="n">
-        <v>7.216147994316664</v>
+        <v>7.215399591920087</v>
       </c>
       <c r="G30" t="n">
-        <v>98.35712506195533</v>
+        <v>98.34723973204936</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.49844444721367</v>
+        <v>79.43738995117957</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0464597266836753</v>
+        <v>0.04634461541233007</v>
       </c>
       <c r="D31" t="n">
-        <v>2531.268490465029</v>
+        <v>2530.798879559409</v>
       </c>
       <c r="E31" t="n">
-        <v>41.69030756483104</v>
+        <v>41.73655751647384</v>
       </c>
       <c r="F31" t="n">
-        <v>7.303476641010231</v>
+        <v>7.303224604192486</v>
       </c>
       <c r="G31" t="n">
-        <v>95.19727421142599</v>
+        <v>95.18168804035076</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.46049249753088</v>
+        <v>42.94428894049349</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008410293082491778</v>
+        <v>0.008625724123354663</v>
       </c>
       <c r="D32" t="n">
-        <v>2531.268490465029</v>
+        <v>2530.798879559409</v>
       </c>
       <c r="E32" t="n">
-        <v>4.432124843624997</v>
+        <v>4.55730964233004</v>
       </c>
       <c r="F32" t="n">
-        <v>8.061933212666638</v>
+        <v>8.049038764198748</v>
       </c>
       <c r="G32" t="n">
-        <v>98.05693541058014</v>
+        <v>98.00046760058233</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.66468530331474</v>
+        <v>23.71201648218079</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002926182100754359</v>
+        <v>0.002934533632770395</v>
       </c>
       <c r="D33" t="n">
-        <v>2526.536252655731</v>
+        <v>2525.150628296185</v>
       </c>
       <c r="E33" t="n">
-        <v>4.432124843624997</v>
+        <v>4.55730964233004</v>
       </c>
       <c r="F33" t="n">
-        <v>8.526254548791893</v>
+        <v>8.520283148579953</v>
       </c>
       <c r="G33" t="n">
-        <v>99.28218922531927</v>
+        <v>99.2219682371132</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.66468530331474</v>
+        <v>23.71201648218079</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002926182100754359</v>
+        <v>0.002934533632770395</v>
       </c>
       <c r="D34" t="n">
-        <v>99.24485424498766</v>
+        <v>99.44280991270085</v>
       </c>
       <c r="E34" t="n">
-        <v>4.432124843624997</v>
+        <v>4.55730964233004</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.68669783566287</v>
+        <v>25.73406224821372</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>108.341069521229</v>
+        <v>108.5390210795168</v>
       </c>
       <c r="E35" t="n">
-        <v>4.432124843624997</v>
+        <v>4.55730964233004</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.4683943079178</v>
+        <v>497.4029438636973</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3462.656892150264</v>
+        <v>3462.512545814399</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082089530454869</v>
+        <v>5.082073033757728</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>6.059774879879575</v>
+        <v>6.062262094698174</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.4683943079178</v>
+        <v>512.4029438636973</v>
       </c>
       <c r="C42" t="n">
-        <v>7.204533387239854</v>
+        <v>7.218357045947473</v>
       </c>
       <c r="D42" t="n">
-        <v>3439.258821258238</v>
+        <v>3438.944541880243</v>
       </c>
       <c r="E42" t="n">
-        <v>6.059774879879575</v>
+        <v>6.062262094698174</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986962036092831</v>
+        <v>5.986942602137779</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986962036092831</v>
+        <v>5.986942602137779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986962036092831</v>
+        <v>5.986942602137779</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986962036092831</v>
+        <v>5.986942602137779</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381349487120267</v>
+        <v>2.381341757149939</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944177</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.52752332094973</v>
+        <v>1.491944110089884</v>
       </c>
       <c r="C2" t="n">
-        <v>1.660221733149116</v>
+        <v>1.620100306971969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9200718738046613</v>
+        <v>0.9208961344365066</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2969947333812665</v>
+        <v>0.3052201025332364</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>137.4083004249222</v>
+        <v>137.8649578903922</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.36823639662205</v>
+        <v>32.40895391735921</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.241437142367324</v>
+        <v>6.242406068831607</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.11084292105589</v>
+        <v>49.21809780481504</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.70670170446166</v>
+        <v>31.76470751621736</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8487190383517492</v>
+        <v>0.8487182141031836</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.68641795723243</v>
+        <v>12.71442861198608</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7792452567251843</v>
+        <v>0.7789100890934018</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.696749390601268</v>
+        <v>4.713220846667395</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.785323305393188</v>
+        <v>0.7847997831326944</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02097386876053371</v>
+        <v>0.0257408299441966</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03319712467960198</v>
+        <v>0.03880817804691136</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04031556170879052</v>
+        <v>0.04145425085920044</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04518160054498339</v>
+        <v>0.04645508611387382</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923004325323052</v>
+        <v>0.8923511788910476</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39970.64163371621</v>
+        <v>40036.13229267103</v>
       </c>
       <c r="C2" t="n">
-        <v>40374.38548860223</v>
+        <v>40440.53766936468</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87504.68033808831</v>
+        <v>87618.22165267753</v>
       </c>
       <c r="C3" t="n">
-        <v>88388.565998069</v>
+        <v>88503.25419462376</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35494.25086852807</v>
+        <v>35609.48154665448</v>
       </c>
       <c r="C4" t="n">
-        <v>35852.77865507886</v>
+        <v>35969.17327944897</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.831586332469</v>
+        <v>468.7364321959575</v>
       </c>
       <c r="C5" t="n">
-        <v>472.5571579115849</v>
+        <v>473.4711436322803</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30370.2773791394</v>
+        <v>30417.52784684661</v>
       </c>
       <c r="C6" t="n">
-        <v>30677.04785771656</v>
+        <v>30724.77560287536</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33503.23210355757</v>
+        <v>33591.50249670417</v>
       </c>
       <c r="C7" t="n">
-        <v>33841.64858945209</v>
+        <v>33930.81060273149</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.82128408143328</v>
+        <v>56.9835111593781</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.83421661909128</v>
+        <v>83.6791314957125</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.360768743484967</v>
+        <v>7.346801474222471</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17267.74121982454</v>
+        <v>17266.95158931865</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2227.253674331735</v>
+        <v>2234.139717894296</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11360.39238597934</v>
+        <v>11361.08908824243</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.875792634208</v>
+        <v>3937.863010107662</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.937027648994</v>
+        <v>2844.927792852115</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.50846258553</v>
+        <v>10560.47418268772</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19570.57495720046</v>
+        <v>19577.40470354179</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8363022120191533</v>
+        <v>0.8390815466541547</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.9551751707579</v>
+        <v>463.9600005645427</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.3953114487624</v>
+        <v>869.4007725679312</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.7980729341788</v>
+        <v>305.8895463078571</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>693.7065362186748</v>
+        <v>693.8062768113359</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.2335720455022</v>
+        <v>234.2988575329225</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.2895188711708</v>
+        <v>616.3596063974666</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.3125140335436</v>
+        <v>233.3777582098014</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.3008122675309</v>
+        <v>615.3708423068047</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.267697473442</v>
+        <v>173.3125777097797</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.2249858172497</v>
+        <v>551.272616838585</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.7237477702485</v>
+        <v>103.7271420835941</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>477.8184507674669</v>
+        <v>477.822016112376</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.3431043876789</v>
+        <v>506.3198475177099</v>
       </c>
       <c r="C3" t="n">
-        <v>7.924822657699917</v>
+        <v>7.936760638118115</v>
       </c>
       <c r="D3" t="n">
-        <v>3416.049904118103</v>
+        <v>3415.852806839975</v>
       </c>
       <c r="E3" t="n">
-        <v>64.04495275331959</v>
+        <v>64.03969141059217</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.5277394597343</v>
+        <v>297.6242326189601</v>
       </c>
       <c r="C4" t="n">
-        <v>8.292765777847316</v>
+        <v>8.30413700428047</v>
       </c>
       <c r="D4" t="n">
-        <v>2754.25498376412</v>
+        <v>2754.07994050072</v>
       </c>
       <c r="E4" t="n">
-        <v>64.04495275331959</v>
+        <v>64.03969141059217</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.1674091767242</v>
+        <v>296.2553734267835</v>
       </c>
       <c r="C5" t="n">
-        <v>8.292765777847316</v>
+        <v>8.30413700428047</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.528497370075</v>
+        <v>1324.012336752784</v>
       </c>
       <c r="E5" t="n">
-        <v>64.04495275331959</v>
+        <v>64.03969141059217</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.0355959977077</v>
+        <v>163.0794705968402</v>
       </c>
       <c r="C6" t="n">
-        <v>8.292765777847316</v>
+        <v>8.30413700428047</v>
       </c>
       <c r="D6" t="n">
-        <v>693.0849972726896</v>
+        <v>693.2810700325176</v>
       </c>
       <c r="E6" t="n">
-        <v>64.04495275331959</v>
+        <v>64.03969141059217</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.6505715073479</v>
+        <v>161.6921912243631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6446259184711036</v>
+        <v>0.6453027826937423</v>
       </c>
       <c r="D7" t="n">
-        <v>682.648736229165</v>
+        <v>682.8297759802051</v>
       </c>
       <c r="E7" t="n">
-        <v>64.04495275331959</v>
+        <v>64.03969141059217</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.9380447505816</v>
+        <v>174.9729876507952</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6379524689612632</v>
+        <v>0.638614472184593</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.787396213941</v>
+        <v>2791.821283850783</v>
       </c>
       <c r="E8" t="n">
-        <v>15.84429884129721</v>
+        <v>15.84826032123205</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.6505713774965</v>
+        <v>161.6921910944258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6446259184711036</v>
+        <v>0.6453027826937423</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.243057422309</v>
+        <v>2759.288112971248</v>
       </c>
       <c r="E9" t="n">
-        <v>15.84429884129721</v>
+        <v>15.84826032123205</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.159043343325</v>
+        <v>160.1863683240616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6446259184711036</v>
+        <v>0.6453027826937423</v>
       </c>
       <c r="D10" t="n">
-        <v>676.1783796524933</v>
+        <v>676.2972491243453</v>
       </c>
       <c r="E10" t="n">
-        <v>79.88925159461679</v>
+        <v>79.88795173182422</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.159043343325</v>
+        <v>160.1863683240616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6446259184711036</v>
+        <v>0.6453027826937423</v>
       </c>
       <c r="D11" t="n">
-        <v>676.1783796524933</v>
+        <v>676.2972491243453</v>
       </c>
       <c r="E11" t="n">
-        <v>90.19564623134465</v>
+        <v>90.22464098095332</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6446259184711036</v>
+        <v>0.6453027826937423</v>
       </c>
       <c r="D12" t="n">
-        <v>251.704922392467</v>
+        <v>251.7054907416171</v>
       </c>
       <c r="E12" t="n">
-        <v>90.19931436752313</v>
+        <v>90.22154163343441</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.88886785694456</v>
+        <v>46.85401302093544</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>196.9284972022342</v>
+        <v>196.7828338040362</v>
       </c>
       <c r="E13" t="n">
-        <v>75.13104698866394</v>
+        <v>75.24199859875729</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.88886785694456</v>
+        <v>46.85401302093544</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>196.9284972022342</v>
+        <v>196.7828338040362</v>
       </c>
       <c r="E14" t="n">
-        <v>75.13104698866394</v>
+        <v>75.24199859875729</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.58568040267608</v>
+        <v>75.5304236627544</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03955092243122376</v>
+        <v>0.03945992923604198</v>
       </c>
       <c r="D15" t="n">
-        <v>316.4867760958563</v>
+        <v>316.2549718416355</v>
       </c>
       <c r="E15" t="n">
-        <v>66.35262446977541</v>
+        <v>66.35488590018046</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.61935909343464</v>
+        <v>49.60769691366409</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03955151124028626</v>
+        <v>0.03945994661474729</v>
       </c>
       <c r="D16" t="n">
-        <v>207.7735946834412</v>
+        <v>207.7247516627259</v>
       </c>
       <c r="E16" t="n">
-        <v>66.35437372810131</v>
+        <v>66.35345358135741</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.43904458744498</v>
+        <v>62.4056295229004</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>261.4322796876322</v>
+        <v>261.292370812384</v>
       </c>
       <c r="E19" t="n">
         <v>87.29445459845402</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.3851316907381</v>
+        <v>104.402836590562</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1183557604238939</v>
+        <v>0.1184169302579257</v>
       </c>
       <c r="D20" t="n">
-        <v>2631.250600848606</v>
+        <v>2631.107730837357</v>
       </c>
       <c r="E20" t="n">
-        <v>30.77225677891725</v>
+        <v>30.84330778837837</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.9162906839268</v>
+        <v>102.9310302094867</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1124379724026992</v>
+        <v>0.1124960837450294</v>
       </c>
       <c r="D21" t="n">
-        <v>431.4735098130853</v>
+        <v>431.5357410200596</v>
       </c>
       <c r="E21" t="n">
-        <v>30.77225677891725</v>
+        <v>30.84330778837837</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.16640372937617</v>
+        <v>73.11523302943898</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>306.3477324148981</v>
+        <v>306.133480694261</v>
       </c>
       <c r="E22" t="n">
         <v>692.9731002188799</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.36135129934645</v>
+        <v>45.3571419731347</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.82143904389704</v>
+        <v>76.76573230427681</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04163254992760396</v>
+        <v>0.04153676761688629</v>
       </c>
       <c r="D25" t="n">
-        <v>2507.34086973184</v>
+        <v>2507.011881726789</v>
       </c>
       <c r="E25" t="n">
-        <v>35.58079225676117</v>
+        <v>35.51165349735127</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.4579692144337</v>
+        <v>503.4394785279929</v>
       </c>
       <c r="C26" t="n">
-        <v>7.319316553222071</v>
+        <v>7.332308358332161</v>
       </c>
       <c r="D26" t="n">
-        <v>3416.049904118103</v>
+        <v>3415.852806839975</v>
       </c>
       <c r="E26" t="n">
-        <v>59.28553862432618</v>
+        <v>59.39507672433735</v>
       </c>
       <c r="F26" t="n">
-        <v>6.786527618594146</v>
+        <v>6.785501920459108</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>186.8015288086253</v>
+        <v>186.7371259071167</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4752594888382226</v>
+        <v>0.4759167362559683</v>
       </c>
       <c r="D27" t="n">
-        <v>2828.773485307902</v>
+        <v>2828.595862951333</v>
       </c>
       <c r="E27" t="n">
-        <v>59.28553862432618</v>
+        <v>59.39507672433735</v>
       </c>
       <c r="F27" t="n">
-        <v>7.02577596184793</v>
+        <v>7.02477035296872</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1590900513755</v>
+        <v>172.1953021109198</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5467033675823406</v>
+        <v>0.5473963450600281</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.787396213941</v>
+        <v>2791.821283850783</v>
       </c>
       <c r="E28" t="n">
-        <v>15.84429884129721</v>
+        <v>15.84826032123205</v>
       </c>
       <c r="F28" t="n">
-        <v>6.881572160988171</v>
+        <v>6.88108638475585</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.2066993138501</v>
+        <v>183.1682668111786</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4752594888382226</v>
+        <v>0.4759167362559683</v>
       </c>
       <c r="D29" t="n">
-        <v>2820.973406559646</v>
+        <v>2820.850152491465</v>
       </c>
       <c r="E29" t="n">
-        <v>75.12983746562338</v>
+        <v>75.2433370455694</v>
       </c>
       <c r="F29" t="n">
-        <v>7.008750806341819</v>
+        <v>7.00786197084909</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.3860859078598</v>
+        <v>104.4010385505039</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1183561667011833</v>
+        <v>0.1184176696164091</v>
       </c>
       <c r="D30" t="n">
-        <v>2631.252200498811</v>
+        <v>2631.104735222545</v>
       </c>
       <c r="E30" t="n">
-        <v>75.12983746562338</v>
+        <v>75.2433370455694</v>
       </c>
       <c r="F30" t="n">
-        <v>7.166721470458302</v>
+        <v>7.166100609446679</v>
       </c>
       <c r="G30" t="n">
-        <v>97.7198219148967</v>
+        <v>97.71217739997736</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.82160759912125</v>
+        <v>76.76425819436963</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04163284002369008</v>
+        <v>0.04153423554918731</v>
       </c>
       <c r="D31" t="n">
-        <v>2507.340557653966</v>
+        <v>2507.009359258105</v>
       </c>
       <c r="E31" t="n">
-        <v>44.35800525260915</v>
+        <v>44.40010464274022</v>
       </c>
       <c r="F31" t="n">
-        <v>7.28292295075526</v>
+        <v>7.283000356290366</v>
       </c>
       <c r="G31" t="n">
-        <v>94.37227655397601</v>
+        <v>94.3625001022976</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55.41722697871609</v>
+        <v>55.67804787587653</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0160798787623893</v>
+        <v>0.0162812976740987</v>
       </c>
       <c r="D32" t="n">
-        <v>2507.340557653966</v>
+        <v>2507.009359258105</v>
       </c>
       <c r="E32" t="n">
-        <v>8.776673260562625</v>
+        <v>8.888545017399878</v>
       </c>
       <c r="F32" t="n">
-        <v>7.698370674267039</v>
+        <v>7.691871341181907</v>
       </c>
       <c r="G32" t="n">
-        <v>96.05350883592331</v>
+        <v>96.01915601963528</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.24175132741141</v>
+        <v>25.28112696364167</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003215902138722346</v>
+        <v>0.003223444835493993</v>
       </c>
       <c r="D33" t="n">
-        <v>2461.228981770852</v>
+        <v>2459.682610137065</v>
       </c>
       <c r="E33" t="n">
-        <v>8.776673260562625</v>
+        <v>8.888545017399878</v>
       </c>
       <c r="F33" t="n">
-        <v>8.264226517408481</v>
+        <v>8.258003358433736</v>
       </c>
       <c r="G33" t="n">
-        <v>96.48870762615556</v>
+        <v>96.42230240616814</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.24175132741141</v>
+        <v>25.28112696364167</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003215902138722346</v>
+        <v>0.003223444835493993</v>
       </c>
       <c r="D34" t="n">
-        <v>105.8401600827946</v>
+        <v>106.0048159939896</v>
       </c>
       <c r="E34" t="n">
-        <v>8.776673260562625</v>
+        <v>8.888545017399878</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.26482693732748</v>
+        <v>27.30422794809323</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>114.9361944217195</v>
+        <v>115.1008445351132</v>
       </c>
       <c r="E35" t="n">
-        <v>8.776673260562625</v>
+        <v>8.888545017399878</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.4683943079178</v>
+        <v>497.4029438636973</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3462.656892150264</v>
+        <v>3462.512545814399</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082089530454869</v>
+        <v>5.082073033757728</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.4683943079178</v>
+        <v>512.4029438636973</v>
       </c>
       <c r="C42" t="n">
-        <v>7.204533387239854</v>
+        <v>7.218357045947473</v>
       </c>
       <c r="D42" t="n">
-        <v>3439.258821258238</v>
+        <v>3438.944541880243</v>
       </c>
       <c r="E42" t="n">
-        <v>6.059774879879575</v>
+        <v>6.062262094698174</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>471.8052984308276</v>
+        <v>471.6641892074871</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.843501551715733</v>
+        <v>6.84341347282434</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.3829170479321</v>
+        <v>539.3841044265565</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>958.9563701232117</v>
+        <v>958.9587122057166</v>
       </c>
       <c r="E5" t="n">
-        <v>478.6487999825434</v>
+        <v>478.5076026803115</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792756386602614</v>
+        <v>0.7792753496810214</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220351733783034</v>
+        <v>0.1220347037194893</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098470197062145</v>
+        <v>0.03098495155101197</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117312433626675</v>
+        <v>0.06117362454659631</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531361654546868</v>
+        <v>0.006531370501881055</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.4747139970217</v>
+        <v>465.4735109212132</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>874.467413562912</v>
+        <v>874.4669959272319</v>
       </c>
       <c r="E6" t="n">
-        <v>478.6487999825434</v>
+        <v>478.5076026803115</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792756386602614</v>
+        <v>0.7792753496810214</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220351733783034</v>
+        <v>0.1220347037194893</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098470197062145</v>
+        <v>0.03098495155101197</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117312433626675</v>
+        <v>0.06117362454659631</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531361654546868</v>
+        <v>0.006531370501881055</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299.1067375477792</v>
+        <v>299.0896980539257</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>689.5651340672745</v>
+        <v>689.5474519837995</v>
       </c>
       <c r="E7" t="n">
-        <v>478.6487999825434</v>
+        <v>478.5076026803115</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792756386602614</v>
+        <v>0.7792753496810214</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220351733783034</v>
+        <v>0.1220347037194893</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098470197062145</v>
+        <v>0.03098495155101197</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117312433626675</v>
+        <v>0.06117362454659631</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531361654546868</v>
+        <v>0.006531370501881055</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.6276823113556</v>
+        <v>229.622724607074</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4178167006357</v>
+        <v>614.4133604305405</v>
       </c>
       <c r="E8" t="n">
-        <v>478.6487999825434</v>
+        <v>478.5076026803115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792756386602614</v>
+        <v>0.7792753496810214</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220351733783034</v>
+        <v>0.1220347037194893</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098470197062145</v>
+        <v>0.03098495155101197</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117312433626675</v>
+        <v>0.06117362454659631</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531361654546868</v>
+        <v>0.006531370501881055</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228.7062650884936</v>
+        <v>228.7012914878934</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.4286339352145</v>
+        <v>613.4241613066739</v>
       </c>
       <c r="E9" t="n">
-        <v>478.6487999825434</v>
+        <v>478.5076026803115</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792756386602614</v>
+        <v>0.7792753496810214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220351733783034</v>
+        <v>0.1220347037194893</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098470197062145</v>
+        <v>0.03098495155101197</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117312433626675</v>
+        <v>0.06117362454659631</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531361654546868</v>
+        <v>0.006531370501881055</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.5619723642614</v>
+        <v>168.5482676486022</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.2379880921749</v>
+        <v>549.2242888267502</v>
       </c>
       <c r="E10" t="n">
-        <v>478.6487999825434</v>
+        <v>478.5076026803115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792756386602614</v>
+        <v>0.7792753496810214</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220351733783034</v>
+        <v>0.1220347037194893</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098470197062145</v>
+        <v>0.03098495155101197</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117312433626675</v>
+        <v>0.06117362454659631</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531361654546868</v>
+        <v>0.006531370501881055</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.4323292821562</v>
+        <v>101.4240605921034</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.3492475292215</v>
+        <v>478.3413855379839</v>
       </c>
       <c r="E11" t="n">
-        <v>478.6487999825434</v>
+        <v>478.5076026803115</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792756386602614</v>
+        <v>0.7792753496810214</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220351733783034</v>
+        <v>0.1220347037194893</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098470197062145</v>
+        <v>0.03098495155101197</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117312433626675</v>
+        <v>0.06117362454659631</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531361654546868</v>
+        <v>0.006531370501881055</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.487017008077987</v>
+        <v>6.48693351730032</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3564845436377505</v>
+        <v>0.3564799555240246</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986942602137779</v>
+        <v>5.98698027141539</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986942602137779</v>
+        <v>5.98698027141539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986942602137779</v>
+        <v>5.98698027141539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986942602137779</v>
+        <v>5.98698027141539</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381341757149939</v>
+        <v>2.381356740327446</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944178</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6692976459514501</v>
+        <v>0.6691493448319197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6960755986825751</v>
+        <v>0.6959703788752263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9615301085373398</v>
+        <v>0.9614623914215248</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.08776324217418</v>
+        <v>55.0728523418717</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.88017123916577</v>
+        <v>34.87086982645791</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488298177782987</v>
+        <v>0.8488313666960398</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.27707838441755</v>
+        <v>14.27455217408646</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7605374865868925</v>
+        <v>0.7605782565759195</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.5098476785013</v>
+        <v>5.508542008281056</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7520919835669274</v>
+        <v>0.7521839634944252</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4206659400895536</v>
+        <v>0.4188883330462703</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2188235188343545</v>
+        <v>0.2183475896640107</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08085045916733177</v>
+        <v>0.08073786651657817</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0904106703997499</v>
+        <v>0.09028535672703807</v>
       </c>
       <c r="D12" t="n">
-        <v>0.894257932275607</v>
+        <v>0.8942520630524278</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42379.78377107183</v>
+        <v>42377.76417650354</v>
       </c>
       <c r="C2" t="n">
-        <v>42807.86239502205</v>
+        <v>42805.82240050863</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91582.46235787394</v>
+        <v>91591.43821525242</v>
       </c>
       <c r="C3" t="n">
-        <v>92507.5377352262</v>
+        <v>92516.60425783072</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40392.81953206929</v>
+        <v>40381.31831173498</v>
       </c>
       <c r="C4" t="n">
-        <v>40800.827810171</v>
+        <v>40789.21041589393</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.6964045124973</v>
+        <v>515.7050595060904</v>
       </c>
       <c r="C5" t="n">
-        <v>520.9054591035326</v>
+        <v>520.9142015213034</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33430.85041393877</v>
+        <v>33435.50115141868</v>
       </c>
       <c r="C6" t="n">
-        <v>33768.53577165533</v>
+        <v>33773.2334862815</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38308.6431450321</v>
+        <v>38307.91327147928</v>
       </c>
       <c r="C7" t="n">
-        <v>38695.59913639606</v>
+        <v>38694.86189038311</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.16365512578447</v>
+        <v>67.14450281650201</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.53950080946881</v>
+        <v>80.55696617806151</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.129344288584178</v>
+        <v>7.131031229273946</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.4118740597385</v>
+        <v>512.4220457129609</v>
       </c>
       <c r="C3" t="n">
-        <v>7.217379805373081</v>
+        <v>7.215787994410564</v>
       </c>
       <c r="D3" t="n">
-        <v>3438.980931978533</v>
+        <v>3439.02351720022</v>
       </c>
       <c r="E3" t="n">
-        <v>59.39507672433735</v>
+        <v>59.3792143786317</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.168277499893</v>
+        <v>291.152736245783</v>
       </c>
       <c r="C4" t="n">
-        <v>7.569252754383641</v>
+        <v>7.567546105552569</v>
       </c>
       <c r="D4" t="n">
-        <v>2764.918959180459</v>
+        <v>2764.942990926324</v>
       </c>
       <c r="E4" t="n">
-        <v>59.39507672433735</v>
+        <v>59.3792143786317</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.9673314633502</v>
+        <v>289.9531557911882</v>
       </c>
       <c r="C5" t="n">
-        <v>7.569252754383641</v>
+        <v>7.567546105552569</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.74330804768</v>
+        <v>1289.666967535106</v>
       </c>
       <c r="E5" t="n">
-        <v>59.39507672433735</v>
+        <v>59.3792143786317</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.466967588129</v>
+        <v>162.475805599167</v>
       </c>
       <c r="C6" t="n">
-        <v>7.569252754383641</v>
+        <v>7.567546105552569</v>
       </c>
       <c r="D6" t="n">
-        <v>690.2066796443723</v>
+        <v>690.2438463838158</v>
       </c>
       <c r="E6" t="n">
-        <v>59.39507672433735</v>
+        <v>59.3792143786317</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.6073937253854</v>
+        <v>157.5942076406498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5815140217093431</v>
+        <v>0.5813165839353127</v>
       </c>
       <c r="D7" t="n">
-        <v>665.0876934864076</v>
+        <v>665.0305046784582</v>
       </c>
       <c r="E7" t="n">
-        <v>59.39507672433735</v>
+        <v>59.3792143786317</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.1292197759197</v>
+        <v>171.1151045791797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5748903038891673</v>
+        <v>0.5747416441693234</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.385916735348</v>
+        <v>2787.367519364075</v>
       </c>
       <c r="E8" t="n">
-        <v>14.37495446816109</v>
+        <v>14.37276095072841</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.6073936037099</v>
+        <v>157.5942075190011</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5815140217093431</v>
+        <v>0.5813165839353127</v>
       </c>
       <c r="D9" t="n">
-        <v>2754.778726320485</v>
+        <v>2754.763887024078</v>
       </c>
       <c r="E9" t="n">
-        <v>14.37495446816109</v>
+        <v>14.37276095072841</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.4237529282242</v>
+        <v>156.4166142025684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5815140217093431</v>
+        <v>0.5813165839353127</v>
       </c>
       <c r="D10" t="n">
-        <v>659.9667088502188</v>
+        <v>659.9357183637724</v>
       </c>
       <c r="E10" t="n">
-        <v>73.77003119249844</v>
+        <v>73.75197532936011</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.4237529282242</v>
+        <v>156.4166142025684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5815140217093431</v>
+        <v>0.5813165839353127</v>
       </c>
       <c r="D11" t="n">
-        <v>659.9667088502188</v>
+        <v>659.9357183637724</v>
       </c>
       <c r="E11" t="n">
-        <v>82.26864317428009</v>
+        <v>82.24381097474426</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5815140217093431</v>
+        <v>0.5813165839353127</v>
       </c>
       <c r="D12" t="n">
-        <v>251.651928202362</v>
+        <v>251.6517624153669</v>
       </c>
       <c r="E12" t="n">
-        <v>82.27030406995343</v>
+        <v>82.24656745500735</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.72441188724969</v>
+        <v>48.72974121042233</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>204.599927389603</v>
+        <v>204.6222019095833</v>
       </c>
       <c r="E13" t="n">
-        <v>73.77127528403557</v>
+        <v>73.756402811708</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.3485969027156</v>
+        <v>48.35435173887043</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.0291845092211</v>
+        <v>203.0532369344966</v>
       </c>
       <c r="E14" t="n">
-        <v>67.7090131893374</v>
+        <v>67.69459543282163</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.17956916757311</v>
+        <v>78.18717172711808</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04402589484071415</v>
+        <v>0.04403961100555891</v>
       </c>
       <c r="D15" t="n">
-        <v>327.3707589838939</v>
+        <v>327.4026667935424</v>
       </c>
       <c r="E15" t="n">
-        <v>63.15526111411219</v>
+        <v>63.15547248339332</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.114539235167</v>
+        <v>50.11596945999725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04402079242270532</v>
+        <v>0.04403408930973716</v>
       </c>
       <c r="D16" t="n">
-        <v>209.8480177111314</v>
+        <v>209.8540096703735</v>
       </c>
       <c r="E16" t="n">
-        <v>63.15170354700736</v>
+        <v>63.15160696288603</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>662.4356205039981</v>
+        <v>662.4409497303809</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.44762037692368</v>
+        <v>83.44829170444039</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.92719716157339</v>
+        <v>63.93145916719034</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>267.6631745155078</v>
+        <v>267.681019533026</v>
       </c>
       <c r="E19" t="n">
-        <v>83.44762037692368</v>
+        <v>83.44829170444039</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.3799902453517</v>
+        <v>103.3783289859754</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1142795229158891</v>
+        <v>0.1142718830732719</v>
       </c>
       <c r="D20" t="n">
-        <v>2643.726213046432</v>
+        <v>2643.7508813654</v>
       </c>
       <c r="E20" t="n">
-        <v>25.96893093526601</v>
+        <v>25.9598529890517</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.9195845916441</v>
+        <v>101.9176891188787</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1085655467700947</v>
+        <v>0.1085582889196083</v>
       </c>
       <c r="D21" t="n">
-        <v>427.2660004689366</v>
+        <v>427.2580000994489</v>
       </c>
       <c r="E21" t="n">
-        <v>25.96893093526601</v>
+        <v>25.9598529890517</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.7184828764955</v>
+        <v>75.72552724007505</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>317.0332878038867</v>
+        <v>317.0627825541943</v>
       </c>
       <c r="E22" t="n">
-        <v>662.4356205039981</v>
+        <v>662.4409497303809</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>662.4356205039981</v>
+        <v>662.4409497303809</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.54881523882231</v>
+        <v>45.54935212756403</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>662.4356205039981</v>
+        <v>662.4409497303809</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.43655729980924</v>
+        <v>79.44422238501613</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04634304720075173</v>
+        <v>0.04635748526900937</v>
       </c>
       <c r="D25" t="n">
-        <v>2530.796001811035</v>
+        <v>2530.854179631851</v>
       </c>
       <c r="E25" t="n">
-        <v>37.1829194012458</v>
+        <v>37.19192489161258</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>509.693844993569</v>
+        <v>509.7048824153384</v>
       </c>
       <c r="C26" t="n">
-        <v>6.636257571362109</v>
+        <v>6.634831796749914</v>
       </c>
       <c r="D26" t="n">
-        <v>3438.980931978533</v>
+        <v>3439.02351720022</v>
       </c>
       <c r="E26" t="n">
-        <v>53.33394476117915</v>
+        <v>53.32171227985678</v>
       </c>
       <c r="F26" t="n">
-        <v>6.858749226656256</v>
+        <v>6.858897869477966</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.506059999284</v>
+        <v>192.5175768309902</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4326885427974083</v>
+        <v>0.4326051895003376</v>
       </c>
       <c r="D27" t="n">
-        <v>2843.399493957126</v>
+        <v>2843.42850955214</v>
       </c>
       <c r="E27" t="n">
-        <v>53.33394476117915</v>
+        <v>53.32171227985678</v>
       </c>
       <c r="F27" t="n">
-        <v>7.099534494974992</v>
+        <v>7.099683524889841</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.4877740907615</v>
+        <v>168.476377537283</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4914959362031268</v>
+        <v>0.4913946370821551</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.385916735348</v>
+        <v>2787.367519364075</v>
       </c>
       <c r="E28" t="n">
-        <v>14.37495446816109</v>
+        <v>14.37276095072841</v>
       </c>
       <c r="F28" t="n">
-        <v>6.91893591165055</v>
+        <v>6.918985953757602</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.9305144870335</v>
+        <v>186.9368030406357</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4326885427974083</v>
+        <v>0.4326051895003376</v>
       </c>
       <c r="D29" t="n">
-        <v>2831.507517698074</v>
+        <v>2831.52574744792</v>
       </c>
       <c r="E29" t="n">
-        <v>67.70889922934023</v>
+        <v>67.69447323058519</v>
       </c>
       <c r="F29" t="n">
-        <v>7.073842103175112</v>
+        <v>7.073968324289735</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>103.3802218949791</v>
+        <v>103.3785460216823</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1142789855108964</v>
+        <v>0.1142722906282781</v>
       </c>
       <c r="D30" t="n">
-        <v>2643.726756871932</v>
+        <v>2643.751391182869</v>
       </c>
       <c r="E30" t="n">
-        <v>67.70889922934023</v>
+        <v>67.69447323058519</v>
       </c>
       <c r="F30" t="n">
-        <v>7.215399591920087</v>
+        <v>7.215491162619963</v>
       </c>
       <c r="G30" t="n">
-        <v>98.34723973204936</v>
+        <v>98.34845536127507</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43738995117957</v>
+        <v>79.44495579247626</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04634461541233007</v>
+        <v>0.04635886692421381</v>
       </c>
       <c r="D31" t="n">
-        <v>2530.798879559409</v>
+        <v>2530.856700945007</v>
       </c>
       <c r="E31" t="n">
-        <v>41.73655751647384</v>
+        <v>41.73092563880445</v>
       </c>
       <c r="F31" t="n">
-        <v>7.303224604192486</v>
+        <v>7.303254777808162</v>
       </c>
       <c r="G31" t="n">
-        <v>95.18168804035076</v>
+        <v>95.18360319254973</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.94428894049349</v>
+        <v>42.88941319219907</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008625724123354663</v>
+        <v>0.008601051696500718</v>
       </c>
       <c r="D32" t="n">
-        <v>2530.798879559409</v>
+        <v>2530.856700945007</v>
       </c>
       <c r="E32" t="n">
-        <v>4.55730964233004</v>
+        <v>4.542988469935601</v>
       </c>
       <c r="F32" t="n">
-        <v>8.049038764198748</v>
+        <v>8.050513282093425</v>
       </c>
       <c r="G32" t="n">
-        <v>98.00046760058233</v>
+        <v>98.00706424137108</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.71201648218079</v>
+        <v>23.70660941291322</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002934533632770395</v>
+        <v>0.002933578510012641</v>
       </c>
       <c r="D33" t="n">
-        <v>2525.150628296185</v>
+        <v>2525.31461529735</v>
       </c>
       <c r="E33" t="n">
-        <v>4.55730964233004</v>
+        <v>4.542988469935601</v>
       </c>
       <c r="F33" t="n">
-        <v>8.520283148579953</v>
+        <v>8.520984396928707</v>
       </c>
       <c r="G33" t="n">
-        <v>99.2219682371132</v>
+        <v>99.22908103164748</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.71201648218079</v>
+        <v>23.70660941291322</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002934533632770395</v>
+        <v>0.002933578510012641</v>
       </c>
       <c r="D34" t="n">
-        <v>99.44280991270085</v>
+        <v>99.42019569754417</v>
       </c>
       <c r="E34" t="n">
-        <v>4.55730964233004</v>
+        <v>4.542988469935601</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.73406224821372</v>
+        <v>25.72865138565373</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>108.5390210795168</v>
+        <v>108.5164073338486</v>
       </c>
       <c r="E35" t="n">
-        <v>4.55730964233004</v>
+        <v>4.542988469935601</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.4029438636973</v>
+        <v>497.4223676168102</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3462.512545814399</v>
+        <v>3462.555383406365</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082073033757728</v>
+        <v>5.082105009681445</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>6.062262094698174</v>
+        <v>6.061807378886369</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.4029438636973</v>
+        <v>512.4223676168102</v>
       </c>
       <c r="C42" t="n">
-        <v>7.218357045947473</v>
+        <v>7.215771168092102</v>
       </c>
       <c r="D42" t="n">
-        <v>3438.944541880243</v>
+        <v>3439.025122043739</v>
       </c>
       <c r="E42" t="n">
-        <v>6.062262094698174</v>
+        <v>6.061807378886369</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986942602137779</v>
+        <v>5.98698027141539</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986942602137779</v>
+        <v>5.98698027141539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986942602137779</v>
+        <v>5.98698027141539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986942602137779</v>
+        <v>5.98698027141539</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381341757149939</v>
+        <v>2.381356740327446</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944178</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.491944110089884</v>
+        <v>1.497148422324125</v>
       </c>
       <c r="C2" t="n">
-        <v>1.620100306971969</v>
+        <v>1.625935185545212</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9208961344365066</v>
+        <v>0.9207921912472163</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3052201025332364</v>
+        <v>0.3040080937602941</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>137.8649578903922</v>
+        <v>137.7971478186442</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.40895391735921</v>
+        <v>32.40291256008383</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.242406068831607</v>
+        <v>6.242262190809172</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.21809780481504</v>
+        <v>49.20580932123367</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.76470751621736</v>
+        <v>31.75814563313002</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8487182141031836</v>
+        <v>0.848718272198743</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.71442861198608</v>
+        <v>12.71128613357484</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7789100890934018</v>
+        <v>0.778947138264279</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.713220846667395</v>
+        <v>4.711199923332103</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7847997831326944</v>
+        <v>0.7848646208744011</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0257408299441966</v>
+        <v>0.02517763119670193</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03880817804691136</v>
+        <v>0.03816743906898559</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04145425085920044</v>
+        <v>0.0413239845838252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04645508611387382</v>
+        <v>0.04630940708321711</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923511788910476</v>
+        <v>0.8923453610530319</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40036.13229267103</v>
+        <v>40025.62931673512</v>
       </c>
       <c r="C2" t="n">
-        <v>40440.53766936468</v>
+        <v>40429.92860276275</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87618.22165267753</v>
+        <v>87600.55358449725</v>
       </c>
       <c r="C3" t="n">
-        <v>88503.25419462376</v>
+        <v>88485.40766110833</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35609.48154665448</v>
+        <v>35592.7116884259</v>
       </c>
       <c r="C4" t="n">
-        <v>35969.17327944897</v>
+        <v>35952.23402871303</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>468.7364321959575</v>
+        <v>468.6059083215081</v>
       </c>
       <c r="C5" t="n">
-        <v>473.4711436322803</v>
+        <v>473.3393013348567</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30417.52784684661</v>
+        <v>30412.92580202248</v>
       </c>
       <c r="C6" t="n">
-        <v>30724.77560287536</v>
+        <v>30720.12707274998</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33591.50249670417</v>
+        <v>33578.82804249069</v>
       </c>
       <c r="C7" t="n">
-        <v>33930.81060273149</v>
+        <v>33918.00812372797</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.9835111593781</v>
+        <v>56.96443105545428</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.6791314957125</v>
+        <v>83.69785407989085</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.346801474222471</v>
+        <v>7.348349714711453</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17266.95158931865</v>
+        <v>17267.27793648857</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2234.139717894296</v>
+        <v>2232.839101835511</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11361.08908824243</v>
+        <v>11360.94286600162</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.863010107662</v>
+        <v>3937.887786769939</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.927792852115</v>
+        <v>2844.945692869191</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.47418268772</v>
+        <v>10560.54062819423</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19577.40470354179</v>
+        <v>19576.21320966887</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8390815466541547</v>
+        <v>0.8386688371393387</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.9600005645427</v>
+        <v>463.9634220402749</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.4007725679312</v>
+        <v>869.4046448124715</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8895463078571</v>
+        <v>305.8773144227703</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>693.8062768113359</v>
+        <v>693.7929393073089</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.2988575329225</v>
+        <v>234.3069746363614</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.3596063974666</v>
+        <v>616.3683206152779</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.3777582098014</v>
+        <v>233.3858613757765</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.3708423068047</v>
+        <v>615.3795399300716</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.3125777097797</v>
+        <v>173.3123709715258</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.272616838585</v>
+        <v>551.2723974281573</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.7271420835941</v>
+        <v>103.7282654814118</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>477.822016112376</v>
+        <v>477.8231961159319</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.3198475177099</v>
+        <v>506.3294157700527</v>
       </c>
       <c r="C3" t="n">
-        <v>7.936760638118115</v>
+        <v>7.935110225325049</v>
       </c>
       <c r="D3" t="n">
-        <v>3415.852806839975</v>
+        <v>3415.894623159556</v>
       </c>
       <c r="E3" t="n">
-        <v>64.03969141059217</v>
+        <v>64.03827511022085</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.6242326189601</v>
+        <v>297.6111280498874</v>
       </c>
       <c r="C4" t="n">
-        <v>8.30413700428047</v>
+        <v>8.302591995959652</v>
       </c>
       <c r="D4" t="n">
-        <v>2754.07994050072</v>
+        <v>2754.103736924671</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03969141059217</v>
+        <v>64.03827511022085</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.2553734267835</v>
+        <v>296.2244308003096</v>
       </c>
       <c r="C5" t="n">
-        <v>8.30413700428047</v>
+        <v>8.302591995959652</v>
       </c>
       <c r="D5" t="n">
-        <v>1324.012336752784</v>
+        <v>1323.83950367207</v>
       </c>
       <c r="E5" t="n">
-        <v>64.03969141059217</v>
+        <v>64.03827511022085</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.0794705968402</v>
+        <v>163.0773971937807</v>
       </c>
       <c r="C6" t="n">
-        <v>8.30413700428047</v>
+        <v>8.302591995959652</v>
       </c>
       <c r="D6" t="n">
-        <v>693.2810700325176</v>
+        <v>693.2712154534273</v>
       </c>
       <c r="E6" t="n">
-        <v>64.03969141059217</v>
+        <v>64.03827511022085</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.6921912243631</v>
+        <v>161.690405006398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6453027826937423</v>
+        <v>0.6452737217031664</v>
       </c>
       <c r="D7" t="n">
-        <v>682.8297759802051</v>
+        <v>682.8220060754389</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03969141059217</v>
+        <v>64.03827511022085</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.9729876507952</v>
+        <v>174.9700353530762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.638614472184593</v>
+        <v>0.6386005992126749</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.821283850783</v>
+        <v>2791.81655872051</v>
       </c>
       <c r="E8" t="n">
-        <v>15.84826032123205</v>
+        <v>15.85153216640411</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.6921910944258</v>
+        <v>161.6904048764645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6453027826937423</v>
+        <v>0.6452737217031664</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.288112971248</v>
+        <v>2759.286179676452</v>
       </c>
       <c r="E9" t="n">
-        <v>15.84826032123205</v>
+        <v>15.85153216640411</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.1863683240616</v>
+        <v>160.1930983287926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6453027826937423</v>
+        <v>0.6452737217031664</v>
       </c>
       <c r="D10" t="n">
-        <v>676.2972491243453</v>
+        <v>676.3264124450222</v>
       </c>
       <c r="E10" t="n">
-        <v>79.88795173182422</v>
+        <v>79.88980727662496</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.1863683240616</v>
+        <v>160.1930983287926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6453027826937423</v>
+        <v>0.6452737217031664</v>
       </c>
       <c r="D11" t="n">
-        <v>676.2972491243453</v>
+        <v>676.3264124450222</v>
       </c>
       <c r="E11" t="n">
-        <v>90.22464098095332</v>
+        <v>90.21672165595882</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6453027826937423</v>
+        <v>0.6452737217031664</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7054907416171</v>
+        <v>251.7054663396961</v>
       </c>
       <c r="E12" t="n">
-        <v>90.22154163343441</v>
+        <v>90.21989941262271</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.85401302093544</v>
+        <v>46.85827360327028</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>196.7828338040362</v>
+        <v>196.8006393780354</v>
       </c>
       <c r="E13" t="n">
-        <v>75.24199859875729</v>
+        <v>75.23108078325029</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.85401302093544</v>
+        <v>46.85827360327028</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>196.7828338040362</v>
+        <v>196.8006393780354</v>
       </c>
       <c r="E14" t="n">
-        <v>75.24199859875729</v>
+        <v>75.23108078325029</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.5304236627544</v>
+        <v>75.53754828773799</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03945992923604198</v>
+        <v>0.03947165169293244</v>
       </c>
       <c r="D15" t="n">
-        <v>316.2549718416355</v>
+        <v>316.2848598082185</v>
       </c>
       <c r="E15" t="n">
-        <v>66.35488590018046</v>
+        <v>66.35429697037765</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.60769691366409</v>
+        <v>49.60940022610606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03945994661474729</v>
+        <v>0.03947187880687458</v>
       </c>
       <c r="D16" t="n">
-        <v>207.7247516627259</v>
+        <v>207.7318841536089</v>
       </c>
       <c r="E16" t="n">
-        <v>66.35345358135741</v>
+        <v>66.35491460176229</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.4056295229004</v>
+        <v>62.41024493194642</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>261.292370812384</v>
+        <v>261.3116955300596</v>
       </c>
       <c r="E19" t="n">
         <v>87.29445459845402</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.402836590562</v>
+        <v>104.4004028497773</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1184169302579257</v>
+        <v>0.1184090380543771</v>
       </c>
       <c r="D20" t="n">
-        <v>2631.107730837357</v>
+        <v>2631.135417771173</v>
       </c>
       <c r="E20" t="n">
-        <v>30.84330778837837</v>
+        <v>30.83401189282456</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.9310302094867</v>
+        <v>102.9291288512256</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1124960837450294</v>
+        <v>0.1124885861516582</v>
       </c>
       <c r="D21" t="n">
-        <v>431.5357410200596</v>
+        <v>431.5277133497468</v>
       </c>
       <c r="E21" t="n">
-        <v>30.84330778837837</v>
+        <v>30.83401189282456</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.11523302943898</v>
+        <v>73.12183390900314</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>306.133480694261</v>
+        <v>306.1611185769962</v>
       </c>
       <c r="E22" t="n">
         <v>692.9731002188799</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.3571419731347</v>
+        <v>45.35772338042928</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.76573230427681</v>
+        <v>76.77291494549922</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04153676761688629</v>
+        <v>0.04154910704519205</v>
       </c>
       <c r="D25" t="n">
-        <v>2507.011881726789</v>
+        <v>2507.063422602683</v>
       </c>
       <c r="E25" t="n">
-        <v>35.51165349735127</v>
+        <v>35.52038094591681</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.4394785279929</v>
+        <v>503.4477614797703</v>
       </c>
       <c r="C26" t="n">
-        <v>7.332308358332161</v>
+        <v>7.33046086256923</v>
       </c>
       <c r="D26" t="n">
-        <v>3415.852806839975</v>
+        <v>3415.894623159556</v>
       </c>
       <c r="E26" t="n">
-        <v>59.39507672433735</v>
+        <v>59.3792143786317</v>
       </c>
       <c r="F26" t="n">
-        <v>6.785501920459108</v>
+        <v>6.785665445555342</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>186.7371259071167</v>
+        <v>186.7545098473418</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4759167362559683</v>
+        <v>0.4758488339262728</v>
       </c>
       <c r="D27" t="n">
-        <v>2828.595862951333</v>
+        <v>2828.637445856675</v>
       </c>
       <c r="E27" t="n">
-        <v>59.39507672433735</v>
+        <v>59.3792143786317</v>
       </c>
       <c r="F27" t="n">
-        <v>7.02477035296872</v>
+        <v>7.024924722515979</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1953021109198</v>
+        <v>172.1920457039715</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5473963450600281</v>
+        <v>0.5473579594532121</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.821283850783</v>
+        <v>2791.81655872051</v>
       </c>
       <c r="E28" t="n">
-        <v>15.84826032123205</v>
+        <v>15.85153216640411</v>
       </c>
       <c r="F28" t="n">
-        <v>6.88108638475585</v>
+        <v>6.88110687885903</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.1682668111786</v>
+        <v>183.1796796695762</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4759167362559683</v>
+        <v>0.4758488339262728</v>
       </c>
       <c r="D29" t="n">
-        <v>2820.850152491465</v>
+        <v>2820.879082373135</v>
       </c>
       <c r="E29" t="n">
-        <v>75.2433370455694</v>
+        <v>75.23074654503581</v>
       </c>
       <c r="F29" t="n">
-        <v>7.00786197084909</v>
+        <v>7.007989251523827</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.4010385505039</v>
+        <v>104.4004456329073</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1184176696164091</v>
+        <v>0.1184152303371978</v>
       </c>
       <c r="D30" t="n">
-        <v>2631.104735222545</v>
+        <v>2631.135489099855</v>
       </c>
       <c r="E30" t="n">
-        <v>75.2433370455694</v>
+        <v>75.23074654503581</v>
       </c>
       <c r="F30" t="n">
-        <v>7.166100609446679</v>
+        <v>7.166191195894832</v>
       </c>
       <c r="G30" t="n">
-        <v>97.71217739997736</v>
+        <v>97.71359008964981</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.76425819436963</v>
+        <v>76.77178798664227</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04153423554918731</v>
+        <v>0.04154717078067002</v>
       </c>
       <c r="D31" t="n">
-        <v>2507.009359258105</v>
+        <v>2507.060370590479</v>
       </c>
       <c r="E31" t="n">
-        <v>44.40010464274022</v>
+        <v>44.39683052057497</v>
       </c>
       <c r="F31" t="n">
-        <v>7.283000356290366</v>
+        <v>7.283011693157835</v>
       </c>
       <c r="G31" t="n">
-        <v>94.3625001022976</v>
+        <v>94.36410856103991</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55.67804787587653</v>
+        <v>55.64938345417175</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0162812976740987</v>
+        <v>0.01625905670972583</v>
       </c>
       <c r="D32" t="n">
-        <v>2507.009359258105</v>
+        <v>2507.060370590479</v>
       </c>
       <c r="E32" t="n">
-        <v>8.888545017399878</v>
+        <v>8.876166181488003</v>
       </c>
       <c r="F32" t="n">
-        <v>7.691871341181907</v>
+        <v>7.6926294318081</v>
       </c>
       <c r="G32" t="n">
-        <v>96.01915601963528</v>
+        <v>96.0235489803391</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.28112696364167</v>
+        <v>25.27679303110324</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003223444835493993</v>
+        <v>0.003222613883497008</v>
       </c>
       <c r="D33" t="n">
-        <v>2459.682610137065</v>
+        <v>2459.867886303749</v>
       </c>
       <c r="E33" t="n">
-        <v>8.888545017399878</v>
+        <v>8.876166181488003</v>
       </c>
       <c r="F33" t="n">
-        <v>8.258003358433736</v>
+        <v>8.258738741979565</v>
       </c>
       <c r="G33" t="n">
-        <v>96.42230240616814</v>
+        <v>96.43022910603241</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.28112696364167</v>
+        <v>25.27679303110324</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003223444835493993</v>
+        <v>0.003222613883497008</v>
       </c>
       <c r="D34" t="n">
-        <v>106.0048159939896</v>
+        <v>105.9866929501429</v>
       </c>
       <c r="E34" t="n">
-        <v>8.888545017399878</v>
+        <v>8.876166181488003</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.30422794809323</v>
+        <v>27.29989122308723</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.1008445351132</v>
+        <v>115.0827221214943</v>
       </c>
       <c r="E35" t="n">
-        <v>8.888545017399878</v>
+        <v>8.876166181488003</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.4029438636973</v>
+        <v>497.4223676168102</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3462.512545814399</v>
+        <v>3462.555383406365</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082073033757728</v>
+        <v>5.082105009681445</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.4029438636973</v>
+        <v>512.4223676168102</v>
       </c>
       <c r="C42" t="n">
-        <v>7.218357045947473</v>
+        <v>7.215771168092102</v>
       </c>
       <c r="D42" t="n">
-        <v>3438.944541880243</v>
+        <v>3439.025122043739</v>
       </c>
       <c r="E42" t="n">
-        <v>6.062262094698174</v>
+        <v>6.061807378886369</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x4.xlsx
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6691493448319197</v>
+        <v>0.7068565586701883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6959703788752263</v>
+        <v>0.7218918591882554</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9614623914215248</v>
+        <v>0.9791723644937985</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.0728523418717</v>
+        <v>59.98900249079897</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.87086982645791</v>
+        <v>37.45086583487037</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8488313666960398</v>
+        <v>0.8486233349520524</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.27455217408646</v>
+        <v>15.2199727982621</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7605782565759195</v>
+        <v>0.7484487637232821</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.508542008281056</v>
+        <v>5.980209049709203</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7521839634944252</v>
+        <v>0.7120598329938937</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4188883330462703</v>
+        <v>1.337954807957294</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2183475896640107</v>
+        <v>0.3825222770385659</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08073786651657817</v>
+        <v>0.1230978810281561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09028535672703807</v>
+        <v>0.1372890930648411</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8942520630524278</v>
+        <v>0.8966326332275898</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42377.76417650354</v>
+        <v>42237.87787468874</v>
       </c>
       <c r="C2" t="n">
-        <v>42805.82240050863</v>
+        <v>42664.5231057462</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91591.43821525242</v>
+        <v>89642.64272087518</v>
       </c>
       <c r="C3" t="n">
-        <v>92516.60425783072</v>
+        <v>90548.12396047999</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40381.31831173498</v>
+        <v>41026.62785483485</v>
       </c>
       <c r="C4" t="n">
-        <v>40789.21041589393</v>
+        <v>41441.03823720692</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.7050595060904</v>
+        <v>516.8259035808439</v>
       </c>
       <c r="C5" t="n">
-        <v>520.9142015213034</v>
+        <v>522.0463672533778</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33435.50115141868</v>
+        <v>33896.81981438386</v>
       </c>
       <c r="C6" t="n">
-        <v>33773.2334862815</v>
+        <v>34239.21193372107</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38307.91327147928</v>
+        <v>39153.57737824676</v>
       </c>
       <c r="C7" t="n">
-        <v>38694.86189038311</v>
+        <v>39549.06805883511</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.14450281650201</v>
+        <v>73.40703087846302</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.55696617806151</v>
+        <v>74.80158169736606</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.131031229273946</v>
+        <v>6.623887648008377</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.9634220402749</v>
+        <v>464.2004023380125</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.4046448124715</v>
+        <v>869.6728540743544</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8773144227703</v>
+        <v>309.5485164739217</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>693.7929393073089</v>
+        <v>697.7976473852063</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.3069746363614</v>
+        <v>236.8840963767538</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.3683206152779</v>
+        <v>619.1357524624408</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.3858613757765</v>
+        <v>235.9614667665164</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.3795399300716</v>
+        <v>618.1448227407808</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.3123709715258</v>
+        <v>175.0842552786843</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.2723974281573</v>
+        <v>553.1531766350004</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.7282654814118</v>
+        <v>103.97517580599</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>477.8231961159319</v>
+        <v>478.0825517599642</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.3294157700527</v>
+        <v>505.4460783710676</v>
       </c>
       <c r="C3" t="n">
-        <v>7.935110225325049</v>
+        <v>8.425611900733196</v>
       </c>
       <c r="D3" t="n">
-        <v>3415.894623159556</v>
+        <v>3407.953850108754</v>
       </c>
       <c r="E3" t="n">
-        <v>64.03827511022085</v>
+        <v>63.87463533184456</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.6111280498874</v>
+        <v>301.4807284349423</v>
       </c>
       <c r="C4" t="n">
-        <v>8.302591995959652</v>
+        <v>8.768496781214969</v>
       </c>
       <c r="D4" t="n">
-        <v>2754.103736924671</v>
+        <v>2746.739840945861</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03827511022085</v>
+        <v>63.87463533184456</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.2244308003096</v>
+        <v>299.7480150709337</v>
       </c>
       <c r="C5" t="n">
-        <v>8.302591995959652</v>
+        <v>8.768496781214969</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.83950367207</v>
+        <v>1343.341170149949</v>
       </c>
       <c r="E5" t="n">
-        <v>64.03827511022085</v>
+        <v>63.87463533184456</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.0773971937807</v>
+        <v>164.8136487002569</v>
       </c>
       <c r="C6" t="n">
-        <v>8.302591995959652</v>
+        <v>8.768496781214969</v>
       </c>
       <c r="D6" t="n">
-        <v>693.2712154534273</v>
+        <v>701.0415763025085</v>
       </c>
       <c r="E6" t="n">
-        <v>64.03827511022085</v>
+        <v>63.87463533184456</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.690405006398</v>
+        <v>163.3338539563615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6452737217031664</v>
+        <v>0.6724556794378906</v>
       </c>
       <c r="D7" t="n">
-        <v>682.8220060754389</v>
+        <v>689.9752656300813</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03827511022085</v>
+        <v>63.87463533184456</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.9700353530762</v>
+        <v>176.4107127887212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6386005992126749</v>
+        <v>0.6658796714588987</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.81655872051</v>
+        <v>2793.279155136299</v>
       </c>
       <c r="E8" t="n">
-        <v>15.85153216640411</v>
+        <v>16.03751221439961</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.6904048764645</v>
+        <v>163.3338538230142</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6452737217031664</v>
+        <v>0.6724556794378906</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.286179676452</v>
+        <v>2761.05044188</v>
       </c>
       <c r="E9" t="n">
-        <v>15.85153216640411</v>
+        <v>16.03751221439961</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.1930983287926</v>
+        <v>161.3666714717885</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6452737217031664</v>
+        <v>0.6724556794378906</v>
       </c>
       <c r="D10" t="n">
-        <v>676.3264124450222</v>
+        <v>681.432703408108</v>
       </c>
       <c r="E10" t="n">
-        <v>79.88980727662496</v>
+        <v>79.91214754624417</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.1930983287926</v>
+        <v>161.3666714717885</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6452737217031664</v>
+        <v>0.6724556794378906</v>
       </c>
       <c r="D11" t="n">
-        <v>676.3264124450222</v>
+        <v>681.432703408108</v>
       </c>
       <c r="E11" t="n">
-        <v>90.21672165595882</v>
+        <v>91.11746667690285</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6452737217031664</v>
+        <v>0.6724556794378906</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7054663396961</v>
+        <v>251.7282904012584</v>
       </c>
       <c r="E12" t="n">
-        <v>90.21989941262271</v>
+        <v>91.11424680943048</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.85827360327028</v>
+        <v>45.58863789140509</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>196.8006393780354</v>
+        <v>191.4948376876176</v>
       </c>
       <c r="E13" t="n">
-        <v>75.23108078325029</v>
+        <v>79.91216603826081</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.85827360327028</v>
+        <v>45.58863789140509</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>196.8006393780354</v>
+        <v>191.4948376876176</v>
       </c>
       <c r="E14" t="n">
-        <v>75.23108078325029</v>
+        <v>79.91216603826081</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.53754828773799</v>
+        <v>73.20656568927859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03947165169293244</v>
+        <v>0.03578952103107503</v>
       </c>
       <c r="D15" t="n">
-        <v>316.2848598082185</v>
+        <v>306.5082366054771</v>
       </c>
       <c r="E15" t="n">
-        <v>66.35429697037765</v>
+        <v>66.37444896260381</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.60940022610606</v>
+        <v>49.12973618958387</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03947187880687458</v>
+        <v>0.03579398385397229</v>
       </c>
       <c r="D16" t="n">
-        <v>207.7318841536089</v>
+        <v>205.7230805388438</v>
       </c>
       <c r="E16" t="n">
-        <v>66.35491460176229</v>
+        <v>66.37858233755307</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.41024493194642</v>
+        <v>61.02271833613832</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>261.3116955300596</v>
+        <v>255.5021216734112</v>
       </c>
       <c r="E19" t="n">
         <v>87.29445459845402</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104.4004028497773</v>
+        <v>105.0249616335572</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1184090380543771</v>
+        <v>0.1210129485972803</v>
       </c>
       <c r="D20" t="n">
-        <v>2631.135417771173</v>
+        <v>2625.48590539052</v>
       </c>
       <c r="E20" t="n">
-        <v>30.83401189282456</v>
+        <v>33.83717385442128</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.9291288512256</v>
+        <v>103.5508454959687</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1124885861516582</v>
+        <v>0.1149623011674163</v>
       </c>
       <c r="D21" t="n">
-        <v>431.5277133497468</v>
+        <v>434.1528951969688</v>
       </c>
       <c r="E21" t="n">
-        <v>30.83401189282456</v>
+        <v>33.83717385442128</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.12183390900314</v>
+        <v>70.96344178539394</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>306.1611185769962</v>
+        <v>297.1239307554445</v>
       </c>
       <c r="E22" t="n">
         <v>692.9731002188799</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.35772338042928</v>
+        <v>45.18293538738359</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.77291494549922</v>
+        <v>74.42303422173876</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04154910704519205</v>
+        <v>0.03767318003271056</v>
       </c>
       <c r="D25" t="n">
-        <v>2507.063422602683</v>
+        <v>2495.703300147205</v>
       </c>
       <c r="E25" t="n">
-        <v>35.52038094591681</v>
+        <v>32.54100420936714</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.4477614797703</v>
+        <v>502.7615231054377</v>
       </c>
       <c r="C26" t="n">
-        <v>7.33046086256923</v>
+        <v>7.862376892748757</v>
       </c>
       <c r="D26" t="n">
-        <v>3415.894623159556</v>
+        <v>3407.953850108754</v>
       </c>
       <c r="E26" t="n">
-        <v>59.3792143786317</v>
+        <v>63.87463533184456</v>
       </c>
       <c r="F26" t="n">
-        <v>6.785665445555342</v>
+        <v>6.745019566604609</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>186.7545098473418</v>
+        <v>184.2742741665867</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4758488339262728</v>
+        <v>0.5029484120083985</v>
       </c>
       <c r="D27" t="n">
-        <v>2828.637445856675</v>
+        <v>2821.635577756922</v>
       </c>
       <c r="E27" t="n">
-        <v>59.3792143786317</v>
+        <v>63.87463533184456</v>
       </c>
       <c r="F27" t="n">
-        <v>7.024924722515979</v>
+        <v>6.984865907291051</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1920457039715</v>
+        <v>173.7124503938856</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5473579594532121</v>
+        <v>0.5761453602795399</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.81655872051</v>
+        <v>2793.279155136299</v>
       </c>
       <c r="E28" t="n">
-        <v>15.85153216640411</v>
+        <v>16.03751221439961</v>
       </c>
       <c r="F28" t="n">
-        <v>6.88110687885903</v>
+        <v>6.861669186437832</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.1796796695762</v>
+        <v>181.6801978543669</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4758488339262728</v>
+        <v>0.5029484120083985</v>
       </c>
       <c r="D29" t="n">
-        <v>2820.879082373135</v>
+        <v>2815.944747412615</v>
       </c>
       <c r="E29" t="n">
-        <v>75.23074654503581</v>
+        <v>79.91214754624417</v>
       </c>
       <c r="F29" t="n">
-        <v>7.007989251523827</v>
+        <v>6.972389438494757</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.4004456329073</v>
+        <v>105.024985149015</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1184152303371978</v>
+        <v>0.1210076969935824</v>
       </c>
       <c r="D30" t="n">
-        <v>2631.135489099855</v>
+        <v>2625.485934008126</v>
       </c>
       <c r="E30" t="n">
-        <v>75.23074654503581</v>
+        <v>79.91214754624417</v>
       </c>
       <c r="F30" t="n">
-        <v>7.166191195894832</v>
+        <v>7.141656578563059</v>
       </c>
       <c r="G30" t="n">
-        <v>97.71359008964981</v>
+        <v>97.41682938372243</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.77178798664227</v>
+        <v>74.42313977021104</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04154717078067002</v>
+        <v>0.03767334702596298</v>
       </c>
       <c r="D31" t="n">
-        <v>2507.060370590479</v>
+        <v>2495.703438251394</v>
       </c>
       <c r="E31" t="n">
-        <v>44.39683052057497</v>
+        <v>46.07870279300751</v>
       </c>
       <c r="F31" t="n">
-        <v>7.283011693157835</v>
+        <v>7.292649183813177</v>
       </c>
       <c r="G31" t="n">
-        <v>94.36410856103991</v>
+        <v>94.06022536213958</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55.64938345417175</v>
+        <v>64.70601946881266</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01625905670972583</v>
+        <v>0.0247141563871741</v>
       </c>
       <c r="D32" t="n">
-        <v>2507.060370590479</v>
+        <v>2495.703438251394</v>
       </c>
       <c r="E32" t="n">
-        <v>8.876166181488003</v>
+        <v>13.53358370070774</v>
       </c>
       <c r="F32" t="n">
-        <v>7.6926294318081</v>
+        <v>7.475119396112073</v>
       </c>
       <c r="G32" t="n">
-        <v>96.0235489803391</v>
+        <v>94.83001894287813</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.27679303110324</v>
+        <v>26.86161062968597</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003222613883497008</v>
+        <v>0.003539221360102516</v>
       </c>
       <c r="D33" t="n">
-        <v>2459.867886303749</v>
+        <v>2396.841611439969</v>
       </c>
       <c r="E33" t="n">
-        <v>8.876166181488003</v>
+        <v>13.53358370070774</v>
       </c>
       <c r="F33" t="n">
-        <v>8.258738741979565</v>
+        <v>8.007050187199019</v>
       </c>
       <c r="G33" t="n">
-        <v>96.43022910603241</v>
+        <v>93.72108904281706</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.27679303110324</v>
+        <v>26.86161062968597</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003222613883497008</v>
+        <v>0.003539221360102516</v>
       </c>
       <c r="D34" t="n">
-        <v>105.9866929501429</v>
+        <v>112.6134050785188</v>
       </c>
       <c r="E34" t="n">
-        <v>8.876166181488003</v>
+        <v>13.53358370070774</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.29989122308723</v>
+        <v>28.88568293099513</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.0827221214943</v>
+        <v>121.7091393459855</v>
       </c>
       <c r="E35" t="n">
-        <v>8.876166181488003</v>
+        <v>13.53358370070774</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=0, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=0, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>471.6641892074871</v>
+        <v>471.7700211249925</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.84341347282434</v>
+        <v>6.843498933009414</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.3841044265565</v>
+        <v>539.3832255854395</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>958.9587122057166</v>
+        <v>958.956978707565</v>
       </c>
       <c r="E5" t="n">
-        <v>478.5076026803115</v>
+        <v>478.6135200580019</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792753496810214</v>
+        <v>0.7792755635697144</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220347037194893</v>
+        <v>0.122035051338612</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098495155101197</v>
+        <v>0.03098476682347408</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117362454659631</v>
+        <v>0.0611732543146946</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531370501881055</v>
+        <v>0.006531363953504966</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.4735109212132</v>
+        <v>465.4759806241919</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>874.4669959272319</v>
+        <v>874.4690950034851</v>
       </c>
       <c r="E6" t="n">
-        <v>478.5076026803115</v>
+        <v>478.6135200580019</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792753496810214</v>
+        <v>0.7792755635697144</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220347037194893</v>
+        <v>0.122035051338612</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098495155101197</v>
+        <v>0.03098476682347408</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117362454659631</v>
+        <v>0.0611732543146946</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531370501881055</v>
+        <v>0.006531363953504966</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299.0896980539257</v>
+        <v>299.0998905541244</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>689.5474519837995</v>
+        <v>689.5579026770258</v>
       </c>
       <c r="E7" t="n">
-        <v>478.5076026803115</v>
+        <v>478.6135200580019</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792753496810214</v>
+        <v>0.7792755635697144</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220347037194893</v>
+        <v>0.122035051338612</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098495155101197</v>
+        <v>0.03098476682347408</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117362454659631</v>
+        <v>0.0611732543146946</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531370501881055</v>
+        <v>0.006531363953504966</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>229.622724607074</v>
+        <v>229.6092995462474</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4133604305405</v>
+        <v>614.3983053425453</v>
       </c>
       <c r="E8" t="n">
-        <v>478.5076026803115</v>
+        <v>478.6135200580019</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792753496810214</v>
+        <v>0.7792755635697144</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220347037194893</v>
+        <v>0.122035051338612</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098495155101197</v>
+        <v>0.03098476682347408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117362454659631</v>
+        <v>0.0611732543146946</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531370501881055</v>
+        <v>0.006531363953504966</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228.7012914878934</v>
+        <v>228.6879033397516</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.4241613066739</v>
+        <v>613.4091487381452</v>
       </c>
       <c r="E9" t="n">
-        <v>478.5076026803115</v>
+        <v>478.6135200580019</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792753496810214</v>
+        <v>0.7792755635697144</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220347037194893</v>
+        <v>0.122035051338612</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098495155101197</v>
+        <v>0.03098476682347408</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117362454659631</v>
+        <v>0.0611732543146946</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531370501881055</v>
+        <v>0.006531363953504966</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.5482676486022</v>
+        <v>168.5548540023333</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.2242888267502</v>
+        <v>549.2306524344073</v>
       </c>
       <c r="E10" t="n">
-        <v>478.5076026803115</v>
+        <v>478.6135200580019</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792753496810214</v>
+        <v>0.7792755635697144</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220347037194893</v>
+        <v>0.122035051338612</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098495155101197</v>
+        <v>0.03098476682347408</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117362454659631</v>
+        <v>0.0611732543146946</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531370501881055</v>
+        <v>0.006531363953504966</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.4240605921034</v>
+        <v>101.4292452338046</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.3413855379839</v>
+        <v>478.3462213929001</v>
       </c>
       <c r="E11" t="n">
-        <v>478.5076026803115</v>
+        <v>478.6135200580019</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792753496810214</v>
+        <v>0.7792755635697144</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220347037194893</v>
+        <v>0.122035051338612</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098495155101197</v>
+        <v>0.03098476682347408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117362454659631</v>
+        <v>0.0611732543146946</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531370501881055</v>
+        <v>0.006531363953504966</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.48693351730032</v>
+        <v>6.487014525782587</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3564799555240246</v>
+        <v>0.3564844072268328</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.98698027141539</v>
+        <v>5.986989747406043</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.98698027141539</v>
+        <v>5.986989747406043</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.98698027141539</v>
+        <v>5.986989747406043</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.98698027141539</v>
+        <v>5.986989747406043</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381356740327446</v>
+        <v>2.381360509458658</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944178</v>
+        <v>0.05094889585944154</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7068565586701883</v>
+        <v>0.70686147241428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7218918591882554</v>
+        <v>0.7218970414204838</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9791723644937985</v>
+        <v>0.9791721420874392</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.98900249079897</v>
+        <v>59.99000277317773</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.45086583487037</v>
+        <v>37.45232673731306</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8486233349520524</v>
+        <v>0.8486226011420825</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.2199727982621</v>
+        <v>15.21992803460424</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7484487637232821</v>
+        <v>0.7484533283008244</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.980209049709203</v>
+        <v>5.979772149489004</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7120598329938937</v>
+        <v>0.7121571212739817</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.337954807957294</v>
+        <v>1.337975851771433</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3825222770385659</v>
+        <v>0.3825240452588612</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1230978810281561</v>
+        <v>0.1230983530171888</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1372890930648411</v>
+        <v>0.137289615435034</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8966326332275898</v>
+        <v>0.8966326595578487</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42237.87787468874</v>
+        <v>42235.37863184559</v>
       </c>
       <c r="C2" t="n">
-        <v>42664.5231057462</v>
+        <v>42661.99861802585</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89642.64272087518</v>
+        <v>89645.62105293589</v>
       </c>
       <c r="C3" t="n">
-        <v>90548.12396047999</v>
+        <v>90551.13237670292</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41026.62785483485</v>
+        <v>41028.64223244578</v>
       </c>
       <c r="C4" t="n">
-        <v>41441.03823720692</v>
+        <v>41443.07296206645</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.8259035808439</v>
+        <v>516.825259052075</v>
       </c>
       <c r="C5" t="n">
-        <v>522.0463672533778</v>
+        <v>522.0457162142172</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33896.81981438386</v>
+        <v>33895.75340562675</v>
       </c>
       <c r="C6" t="n">
-        <v>34239.21193372107</v>
+        <v>34238.13475315834</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39153.57737824676</v>
+        <v>39152.15277582945</v>
       </c>
       <c r="C7" t="n">
-        <v>39549.06805883511</v>
+        <v>39547.6290664944</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.40703087846302</v>
+        <v>73.39156979650446</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74.80158169736606</v>
+        <v>74.81712022344479</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.623887648008377</v>
+        <v>6.623810203888201</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.4220457129609</v>
+        <v>512.4174344203086</v>
       </c>
       <c r="C3" t="n">
-        <v>7.215787994410564</v>
+        <v>7.21672581575853</v>
       </c>
       <c r="D3" t="n">
-        <v>3439.02351720022</v>
+        <v>3439.002288941957</v>
       </c>
       <c r="E3" t="n">
-        <v>59.3792143786317</v>
+        <v>59.39628777333962</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.152736245783</v>
+        <v>291.1615931671505</v>
       </c>
       <c r="C4" t="n">
-        <v>7.567546105552569</v>
+        <v>7.568518684287993</v>
       </c>
       <c r="D4" t="n">
-        <v>2764.942990926324</v>
+        <v>2764.929296464846</v>
       </c>
       <c r="E4" t="n">
-        <v>59.3792143786317</v>
+        <v>59.39628777333962</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.9531557911882</v>
+        <v>289.9775215831576</v>
       </c>
       <c r="C5" t="n">
-        <v>7.567546105552569</v>
+        <v>7.568518684287993</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.666967535106</v>
+        <v>1289.799850094049</v>
       </c>
       <c r="E5" t="n">
-        <v>59.3792143786317</v>
+        <v>59.39628777333962</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.475805599167</v>
+        <v>162.4600584031021</v>
       </c>
       <c r="C6" t="n">
-        <v>7.567546105552569</v>
+        <v>7.568518684287993</v>
       </c>
       <c r="D6" t="n">
-        <v>690.2438463838158</v>
+        <v>690.1764142403275</v>
       </c>
       <c r="E6" t="n">
-        <v>59.3792143786317</v>
+        <v>59.39628777333962</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.5942076406498</v>
+        <v>157.6027543536417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5813165839353127</v>
+        <v>0.5814445494094317</v>
       </c>
       <c r="D7" t="n">
-        <v>665.0305046784582</v>
+        <v>665.0675722036444</v>
       </c>
       <c r="E7" t="n">
-        <v>59.3792143786317</v>
+        <v>59.39628777333962</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.1151045791797</v>
+        <v>171.1275791440029</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5747416441693234</v>
+        <v>0.5747937756352982</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.367519364075</v>
+        <v>2787.386911577794</v>
       </c>
       <c r="E8" t="n">
-        <v>14.37276095072841</v>
+        <v>14.37104683282297</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.5942075190011</v>
+        <v>157.6027542319758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5813165839353127</v>
+        <v>0.5814445494094317</v>
       </c>
       <c r="D9" t="n">
-        <v>2754.763887024078</v>
+        <v>2754.77350549024</v>
       </c>
       <c r="E9" t="n">
-        <v>14.37276095072841</v>
+        <v>14.37104683282297</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.4166142025684</v>
+        <v>156.4228472104313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5813165839353127</v>
+        <v>0.5814445494094317</v>
       </c>
       <c r="D10" t="n">
-        <v>659.9357183637724</v>
+        <v>659.9627505120886</v>
       </c>
       <c r="E10" t="n">
-        <v>73.75197532936011</v>
+        <v>73.76733460616259</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.4166142025684</v>
+        <v>156.4228472104313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5813165839353127</v>
+        <v>0.5814445494094317</v>
       </c>
       <c r="D11" t="n">
-        <v>659.9357183637724</v>
+        <v>659.9627505120886</v>
       </c>
       <c r="E11" t="n">
-        <v>82.24381097474426</v>
+        <v>82.25836322546421</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5813165839353127</v>
+        <v>0.5814445494094317</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6517624153669</v>
+        <v>251.6518698670048</v>
       </c>
       <c r="E12" t="n">
-        <v>82.24656745500735</v>
+        <v>82.26456342844661</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.72974121042233</v>
+        <v>48.72779085736181</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>204.6222019095833</v>
+        <v>204.6140501834775</v>
       </c>
       <c r="E13" t="n">
-        <v>73.756402811708</v>
+        <v>73.7593010141602</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.35435173887043</v>
+        <v>48.3522271773295</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>203.0532369344966</v>
+        <v>203.0443572962262</v>
       </c>
       <c r="E14" t="n">
-        <v>67.69459543282163</v>
+        <v>67.69726269167963</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.18717172711808</v>
+        <v>78.18107632060526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04403961100555891</v>
+        <v>0.04402861368680473</v>
       </c>
       <c r="D15" t="n">
-        <v>327.4026667935424</v>
+        <v>327.3770844753421</v>
       </c>
       <c r="E15" t="n">
-        <v>63.15547248339332</v>
+        <v>63.15173569786757</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.11596945999725</v>
+        <v>50.11513599680342</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04403408930973716</v>
+        <v>0.04402856971177369</v>
       </c>
       <c r="D16" t="n">
-        <v>209.8540096703735</v>
+        <v>209.8505197792036</v>
       </c>
       <c r="E16" t="n">
-        <v>63.15160696288603</v>
+        <v>63.1500399423508</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>662.4409497303809</v>
+        <v>662.4381781132008</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.44829170444039</v>
+        <v>83.44794256129182</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.93145916719034</v>
+        <v>63.92935215319899</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>267.681019533026</v>
+        <v>267.6721974654442</v>
       </c>
       <c r="E19" t="n">
-        <v>83.44829170444039</v>
+        <v>83.44794256129182</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.3783289859754</v>
+        <v>103.3787671870399</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1142718830732719</v>
+        <v>0.1142780523470621</v>
       </c>
       <c r="D20" t="n">
-        <v>2643.7508813654</v>
+        <v>2643.73971829185</v>
       </c>
       <c r="E20" t="n">
-        <v>25.9598529890517</v>
+        <v>25.96708300933196</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.9176891188787</v>
+        <v>101.9192197428753</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1085582889196083</v>
+        <v>0.108564149729709</v>
       </c>
       <c r="D21" t="n">
-        <v>427.2580000994489</v>
+        <v>427.2644605229844</v>
       </c>
       <c r="E21" t="n">
-        <v>25.9598529890517</v>
+        <v>25.96708300933196</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.72552724007505</v>
+        <v>75.71988469770037</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>317.0627825541943</v>
+        <v>317.0391572292714</v>
       </c>
       <c r="E22" t="n">
-        <v>662.4409497303809</v>
+        <v>662.4381781132008</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>662.4409497303809</v>
+        <v>662.4381781132008</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.54935212756403</v>
+        <v>45.54908670508639</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>662.4409497303809</v>
+        <v>662.4381781132008</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.44422238501613</v>
+        <v>79.4380768479665</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04635748526900937</v>
+        <v>0.04634590914400498</v>
       </c>
       <c r="D25" t="n">
-        <v>2530.854179631851</v>
+        <v>2530.818807094924</v>
       </c>
       <c r="E25" t="n">
-        <v>37.19192489161258</v>
+        <v>37.18459049692165</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>509.7048824153384</v>
+        <v>509.699467201448</v>
       </c>
       <c r="C26" t="n">
-        <v>6.634831796749914</v>
+        <v>6.635560998429467</v>
       </c>
       <c r="D26" t="n">
-        <v>3439.02351720022</v>
+        <v>3439.002288941957</v>
       </c>
       <c r="E26" t="n">
-        <v>53.32171227985678</v>
+        <v>53.32796864110834</v>
       </c>
       <c r="F26" t="n">
-        <v>6.858897869477966</v>
+        <v>6.858822549266364</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.5175768309902</v>
+        <v>192.5084768391737</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4326051895003376</v>
+        <v>0.43262931875983</v>
       </c>
       <c r="D27" t="n">
-        <v>2843.42850955214</v>
+        <v>2843.407848954865</v>
       </c>
       <c r="E27" t="n">
-        <v>53.32171227985678</v>
+        <v>53.32796864110834</v>
       </c>
       <c r="F27" t="n">
-        <v>7.099683524889841</v>
+        <v>7.099614051284385</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.476377537283</v>
+        <v>168.4853181952329</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4913946370821551</v>
+        <v>0.4914047445352624</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.367519364075</v>
+        <v>2787.386911577794</v>
       </c>
       <c r="E28" t="n">
-        <v>14.37276095072841</v>
+        <v>14.37104683282297</v>
       </c>
       <c r="F28" t="n">
-        <v>6.918985953757602</v>
+        <v>6.919020713690146</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.9368030406357</v>
+        <v>186.9328031489225</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4326051895003376</v>
+        <v>0.43262931875983</v>
       </c>
       <c r="D29" t="n">
-        <v>2831.52574744792</v>
+        <v>2831.51580726078</v>
       </c>
       <c r="E29" t="n">
-        <v>67.69447323058519</v>
+        <v>67.69901547393131</v>
       </c>
       <c r="F29" t="n">
-        <v>7.073968324289735</v>
+        <v>7.073921648732377</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>103.3785460216823</v>
+        <v>103.377979653317</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1142722906282781</v>
+        <v>0.1142700281380456</v>
       </c>
       <c r="D30" t="n">
-        <v>2643.751391182869</v>
+        <v>2643.737868845065</v>
       </c>
       <c r="E30" t="n">
-        <v>67.69447323058519</v>
+        <v>67.69901547393131</v>
       </c>
       <c r="F30" t="n">
-        <v>7.215491162619963</v>
+        <v>7.21546408566506</v>
       </c>
       <c r="G30" t="n">
-        <v>98.34845536127507</v>
+        <v>98.34789407876919</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.44495579247626</v>
+        <v>79.43960318424212</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04635886692421381</v>
+        <v>0.04634878402157122</v>
       </c>
       <c r="D31" t="n">
-        <v>2530.856700945007</v>
+        <v>2530.825471423037</v>
       </c>
       <c r="E31" t="n">
-        <v>41.73092563880445</v>
+        <v>41.7318702729854</v>
       </c>
       <c r="F31" t="n">
-        <v>7.303254777808162</v>
+        <v>7.303260877425141</v>
       </c>
       <c r="G31" t="n">
-        <v>95.18360319254973</v>
+        <v>95.1826673152531</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.88941319219907</v>
+        <v>42.90559691591301</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008601051696500718</v>
+        <v>0.008608321653720242</v>
       </c>
       <c r="D32" t="n">
-        <v>2530.856700945007</v>
+        <v>2530.825471423037</v>
       </c>
       <c r="E32" t="n">
-        <v>4.542988469935601</v>
+        <v>4.547222749328824</v>
       </c>
       <c r="F32" t="n">
-        <v>8.050513282093425</v>
+        <v>8.050033500896802</v>
       </c>
       <c r="G32" t="n">
-        <v>98.00706424137108</v>
+        <v>98.00452788427083</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.70660941291322</v>
+        <v>23.70819803558612</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002933578510012641</v>
+        <v>0.002933859101463987</v>
       </c>
       <c r="D33" t="n">
-        <v>2525.31461529735</v>
+        <v>2525.252077841922</v>
       </c>
       <c r="E33" t="n">
-        <v>4.542988469935601</v>
+        <v>4.547222749328824</v>
       </c>
       <c r="F33" t="n">
-        <v>8.520984396928707</v>
+        <v>8.520729999884018</v>
       </c>
       <c r="G33" t="n">
-        <v>99.22908103164748</v>
+        <v>99.2264039929336</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.70660941291322</v>
+        <v>23.70819803558612</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002933578510012641</v>
+        <v>0.002933859101463987</v>
       </c>
       <c r="D34" t="n">
-        <v>99.42019569754417</v>
+        <v>99.42683986294747</v>
       </c>
       <c r="E34" t="n">
-        <v>4.542988469935601</v>
+        <v>4.547222749328824</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.72865138565373</v>
+        <v>25.7302411223319</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>108.5164073338486</v>
+        <v>108.5230513589726</v>
       </c>
       <c r="E35" t="n">
-        <v>4.542988469935601</v>
+        <v>4.547222749328824</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.4223676168102</v>
+        <v>497.4113138374557</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3462.555383406365</v>
+        <v>3462.531005134171</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082105009681445</v>
+        <v>5.082113053466022</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>6.061807378886369</v>
+        <v>6.062038322480568</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.4223676168102</v>
+        <v>512.4113138374557</v>
       </c>
       <c r="C42" t="n">
-        <v>7.215771168092102</v>
+        <v>7.216926805912202</v>
       </c>
       <c r="D42" t="n">
-        <v>3439.025122043739</v>
+        <v>3438.984333585543</v>
       </c>
       <c r="E42" t="n">
-        <v>6.061807378886369</v>
+        <v>6.062038322480568</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.98698027141539</v>
+        <v>5.986989747406043</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.98698027141539</v>
+        <v>5.986989747406043</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.98698027141539</v>
+        <v>5.986989747406043</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.98698027141539</v>
+        <v>5.986989747406043</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381356740327446</v>
+        <v>2.381360509458658</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,16 +3406,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944178</v>
+        <v>0.05094889585944154</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.497148422324125</v>
+        <v>1.491372007266155</v>
       </c>
       <c r="C2" t="n">
-        <v>1.625935185545212</v>
+        <v>1.619525797547958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9207921912472163</v>
+        <v>0.9208695591784746</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3040080937602941</v>
+        <v>0.3053129294422436</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>137.7971478186442</v>
+        <v>137.8480053724552</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.40291256008383</v>
+        <v>32.40744374630234</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.242262190809172</v>
+        <v>6.242370099325998</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.20580932123367</v>
+        <v>49.21161216042938</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.75814563313002</v>
+        <v>31.76184161845014</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.848718272198743</v>
+        <v>0.8487174226938782</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.71128613357484</v>
+        <v>12.71238155846836</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.778947138264279</v>
+        <v>0.7789268377455461</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.711199923332103</v>
+        <v>4.712045521427858</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7848646208744011</v>
+        <v>0.7848298462409526</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02517763119670193</v>
+        <v>0.02534346208300911</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03816743906898559</v>
+        <v>0.03835690998996385</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0413239845838252</v>
+        <v>0.04136249984743161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04630940708321711</v>
+        <v>0.04635247954366831</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923453610530319</v>
+        <v>0.8923470816370098</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40025.62931673512</v>
+        <v>40032.67298764215</v>
       </c>
       <c r="C2" t="n">
-        <v>40429.92860276275</v>
+        <v>40437.04342186076</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87600.55358449725</v>
+        <v>87615.98669091398</v>
       </c>
       <c r="C3" t="n">
-        <v>88485.40766110833</v>
+        <v>88500.99665748887</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35592.7116884259</v>
+        <v>35612.67545193375</v>
       </c>
       <c r="C4" t="n">
-        <v>35952.23402871303</v>
+        <v>35972.39944639773</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>468.6059083215081</v>
+        <v>468.689487077364</v>
       </c>
       <c r="C5" t="n">
-        <v>473.3393013348567</v>
+        <v>473.4237243205698</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30412.92580202248</v>
+        <v>30409.52906768185</v>
       </c>
       <c r="C6" t="n">
-        <v>30720.12707274998</v>
+        <v>30716.69602796147</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33578.82804249069</v>
+        <v>33586.9845875036</v>
       </c>
       <c r="C7" t="n">
-        <v>33918.00812372797</v>
+        <v>33926.24705808445</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.96443105545428</v>
+        <v>56.97984303654845</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.69785407989085</v>
+        <v>83.68258975877637</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.348349714711453</v>
+        <v>7.347582786224022</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17267.27793648857</v>
+        <v>17267.18137341896</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2232.839101835511</v>
+        <v>2233.431321923184</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11360.94286600162</v>
+        <v>11361.08474085454</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.887786769939</v>
+        <v>3937.894019526048</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.945692869191</v>
+        <v>2844.950195753378</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.54062819423</v>
+        <v>10560.55734306212</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19576.21320966887</v>
+        <v>19576.83288026473</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8386688371393387</v>
+        <v>0.8389783692754507</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.2004023380125</v>
+        <v>464.2046361663981</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.6728540743544</v>
+        <v>869.6776459665521</v>
       </c>
       <c r="E6" t="n">
         <v>526.8248149615</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309.5485164739217</v>
+        <v>309.5476747488945</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>697.7976473852063</v>
+        <v>697.7967288094505</v>
       </c>
       <c r="E7" t="n">
         <v>526.8248149615</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>236.8840963767538</v>
+        <v>236.8796454969896</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>619.1357524624408</v>
+        <v>619.130971644813</v>
       </c>
       <c r="E8" t="n">
         <v>526.8248149615</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.9614667665164</v>
+        <v>235.9570161963201</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1448227407808</v>
+        <v>618.1400431589323</v>
       </c>
       <c r="E9" t="n">
         <v>526.8248149615</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.0842552786843</v>
+        <v>175.0816791028445</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1531766350004</v>
+        <v>553.1504417187259</v>
       </c>
       <c r="E10" t="n">
         <v>526.8248149615</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.97517580599</v>
+        <v>103.975172500134</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>478.0825517599642</v>
+        <v>478.0825482874256</v>
       </c>
       <c r="E11" t="n">
         <v>526.8248149615</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.4460783710676</v>
+        <v>505.452513801053</v>
       </c>
       <c r="C3" t="n">
-        <v>8.425611900733196</v>
+        <v>8.425689283670954</v>
       </c>
       <c r="D3" t="n">
-        <v>3407.953850108754</v>
+        <v>3407.970974358623</v>
       </c>
       <c r="E3" t="n">
-        <v>63.87463533184456</v>
+        <v>63.87600086512236</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.4807284349423</v>
+        <v>301.4796298362232</v>
       </c>
       <c r="C4" t="n">
-        <v>8.768496781214969</v>
+        <v>8.768361721790681</v>
       </c>
       <c r="D4" t="n">
-        <v>2746.739840945861</v>
+        <v>2746.742029902377</v>
       </c>
       <c r="E4" t="n">
-        <v>63.87463533184456</v>
+        <v>63.87600086512236</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299.7480150709337</v>
+        <v>299.7462371756781</v>
       </c>
       <c r="C5" t="n">
-        <v>8.768496781214969</v>
+        <v>8.768361721790681</v>
       </c>
       <c r="D5" t="n">
-        <v>1343.341170149949</v>
+        <v>1343.331141526872</v>
       </c>
       <c r="E5" t="n">
-        <v>63.87463533184456</v>
+        <v>63.87600086512236</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.8136487002569</v>
+        <v>164.8113558427224</v>
       </c>
       <c r="C6" t="n">
-        <v>8.768496781214969</v>
+        <v>8.768361721790681</v>
       </c>
       <c r="D6" t="n">
-        <v>701.0415763025085</v>
+        <v>701.0315904814715</v>
       </c>
       <c r="E6" t="n">
-        <v>63.87463533184456</v>
+        <v>63.87600086512236</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.3338539563615</v>
+        <v>163.3315978038422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6724556794378906</v>
+        <v>0.6724177498387667</v>
       </c>
       <c r="D7" t="n">
-        <v>689.9752656300813</v>
+        <v>689.9654394569756</v>
       </c>
       <c r="E7" t="n">
-        <v>63.87463533184456</v>
+        <v>63.87600086512236</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.4107127887212</v>
+        <v>176.4062081911156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6658796714588987</v>
+        <v>0.6658454075314504</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.279155136299</v>
+        <v>2793.271272267429</v>
       </c>
       <c r="E8" t="n">
-        <v>16.03751221439961</v>
+        <v>16.03584357856549</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.3338538230142</v>
+        <v>163.3315976705</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6724556794378906</v>
+        <v>0.6724177498387667</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.05044188</v>
+        <v>2761.048039876035</v>
       </c>
       <c r="E9" t="n">
-        <v>16.03751221439961</v>
+        <v>16.03584357856549</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.3666714717885</v>
+        <v>161.365307123804</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6724556794378906</v>
+        <v>0.6724177498387667</v>
       </c>
       <c r="D10" t="n">
-        <v>681.432703408108</v>
+        <v>681.4267610189208</v>
       </c>
       <c r="E10" t="n">
-        <v>79.91214754624417</v>
+        <v>79.91184444368785</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.3666714717885</v>
+        <v>161.365307123804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6724556794378906</v>
+        <v>0.6724177498387667</v>
       </c>
       <c r="D11" t="n">
-        <v>681.432703408108</v>
+        <v>681.4267610189208</v>
       </c>
       <c r="E11" t="n">
-        <v>91.11746667690285</v>
+        <v>91.11539281916582</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6724556794378906</v>
+        <v>0.6724177498387667</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7282904012584</v>
+        <v>251.7282585527699</v>
       </c>
       <c r="E12" t="n">
-        <v>91.11424680943048</v>
+        <v>91.11315029870941</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.58863789140509</v>
+        <v>45.5885499794627</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>191.4948376876176</v>
+        <v>191.4944703164924</v>
       </c>
       <c r="E13" t="n">
-        <v>79.91216603826081</v>
+        <v>79.91197999847081</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.58863789140509</v>
+        <v>45.5885499794627</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>191.4948376876176</v>
+        <v>191.4944703164924</v>
       </c>
       <c r="E14" t="n">
-        <v>79.91216603826081</v>
+        <v>79.91197999847081</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.20656568927859</v>
+        <v>73.21236034430854</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03578952103107503</v>
+        <v>0.03579830182197397</v>
       </c>
       <c r="D15" t="n">
-        <v>306.5082366054771</v>
+        <v>306.5325359448809</v>
       </c>
       <c r="E15" t="n">
-        <v>66.37444896260381</v>
+        <v>66.38255864782838</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.12973618958387</v>
+        <v>49.12964740930471</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03579398385397229</v>
+        <v>0.0357935542897156</v>
       </c>
       <c r="D16" t="n">
-        <v>205.7230805388438</v>
+        <v>205.7227089546834</v>
       </c>
       <c r="E16" t="n">
-        <v>66.37858233755307</v>
+        <v>66.37834439230778</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.02271833613832</v>
+        <v>61.02250645181127</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>255.5021216734112</v>
+        <v>255.5012345137338</v>
       </c>
       <c r="E19" t="n">
         <v>87.29445459845402</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.0249616335572</v>
+        <v>105.0252138309973</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1210129485972803</v>
+        <v>0.1210064622240694</v>
       </c>
       <c r="D20" t="n">
-        <v>2625.48590539052</v>
+        <v>2625.490030373833</v>
       </c>
       <c r="E20" t="n">
-        <v>33.83717385442128</v>
+        <v>33.82988327905694</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>103.5508454959687</v>
+        <v>103.5493105867588</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1149623011674163</v>
+        <v>0.114956139112866</v>
       </c>
       <c r="D21" t="n">
-        <v>434.1528951969688</v>
+        <v>434.1464134645373</v>
       </c>
       <c r="E21" t="n">
-        <v>33.83717385442128</v>
+        <v>33.82988327905694</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.96344178539394</v>
+        <v>70.96877047648988</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>297.1239307554445</v>
+        <v>297.1462419850632</v>
       </c>
       <c r="E22" t="n">
         <v>692.9731002188799</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.18293538738359</v>
+        <v>45.18290869612132</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.42303422173876</v>
+        <v>74.42887564904925</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03767318003271056</v>
+        <v>0.03768242297049891</v>
       </c>
       <c r="D25" t="n">
-        <v>2495.703300147205</v>
+        <v>2495.714661637789</v>
       </c>
       <c r="E25" t="n">
-        <v>32.54100420936714</v>
+        <v>32.54871374340692</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.7615231054377</v>
+        <v>502.7694837566144</v>
       </c>
       <c r="C26" t="n">
-        <v>7.862376892748757</v>
+        <v>7.862588324920001</v>
       </c>
       <c r="D26" t="n">
-        <v>3407.953850108754</v>
+        <v>3407.970974358623</v>
       </c>
       <c r="E26" t="n">
-        <v>63.87463533184456</v>
+        <v>63.87600086512236</v>
       </c>
       <c r="F26" t="n">
-        <v>6.745019566604609</v>
+        <v>6.745029988725191</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>184.2742741665867</v>
+        <v>184.2773683610093</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5029484120083985</v>
+        <v>0.5029481799235548</v>
       </c>
       <c r="D27" t="n">
-        <v>2821.635577756922</v>
+        <v>2821.642365333839</v>
       </c>
       <c r="E27" t="n">
-        <v>63.87463533184456</v>
+        <v>63.87600086512236</v>
       </c>
       <c r="F27" t="n">
-        <v>6.984865907291051</v>
+        <v>6.9848809522156</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.7124503938856</v>
+        <v>173.7085419521855</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5761453602795399</v>
+        <v>0.5761298973165934</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.279155136299</v>
+        <v>2793.271272267429</v>
       </c>
       <c r="E28" t="n">
-        <v>16.03751221439961</v>
+        <v>16.03584357856549</v>
       </c>
       <c r="F28" t="n">
-        <v>6.861669186437832</v>
+        <v>6.861663430746093</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>181.6801978543669</v>
+        <v>181.6821991235026</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5029484120083985</v>
+        <v>0.5029481799235548</v>
       </c>
       <c r="D29" t="n">
-        <v>2815.944747412615</v>
+        <v>2815.949161607495</v>
       </c>
       <c r="E29" t="n">
-        <v>79.91214754624417</v>
+        <v>79.91184444368785</v>
       </c>
       <c r="F29" t="n">
-        <v>6.972389438494757</v>
+        <v>6.972399349730882</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.024985149015</v>
+        <v>105.0253416659883</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1210076969935824</v>
+        <v>0.1210091901607835</v>
       </c>
       <c r="D30" t="n">
-        <v>2625.485934008126</v>
+        <v>2625.490185963034</v>
       </c>
       <c r="E30" t="n">
-        <v>79.91214754624417</v>
+        <v>79.91184444368785</v>
       </c>
       <c r="F30" t="n">
-        <v>7.141656578563059</v>
+        <v>7.141662370653391</v>
       </c>
       <c r="G30" t="n">
-        <v>97.41682938372243</v>
+        <v>97.41699322127943</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.42313977021104</v>
+        <v>74.42928062474988</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03767334702596298</v>
+        <v>0.03768306383767497</v>
       </c>
       <c r="D31" t="n">
-        <v>2495.703438251394</v>
+        <v>2495.715191187204</v>
       </c>
       <c r="E31" t="n">
-        <v>46.07870279300751</v>
+        <v>46.07799953926639</v>
       </c>
       <c r="F31" t="n">
-        <v>7.292649183813177</v>
+        <v>7.292571949828552</v>
       </c>
       <c r="G31" t="n">
-        <v>94.06022536213958</v>
+        <v>94.06024415632115</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.70601946881266</v>
+        <v>64.7061652092479</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0247141563871741</v>
+        <v>0.02471431781117719</v>
       </c>
       <c r="D32" t="n">
-        <v>2495.703438251394</v>
+        <v>2495.715191187204</v>
       </c>
       <c r="E32" t="n">
-        <v>13.53358370070774</v>
+        <v>13.53363560616303</v>
       </c>
       <c r="F32" t="n">
-        <v>7.475119396112073</v>
+        <v>7.475151341821002</v>
       </c>
       <c r="G32" t="n">
-        <v>94.83001894287813</v>
+        <v>94.83050837624567</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.86161062968597</v>
+        <v>26.8616515539203</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003539221360102516</v>
+        <v>0.003539229873463335</v>
       </c>
       <c r="D33" t="n">
-        <v>2396.841611439969</v>
+        <v>2396.852188612927</v>
       </c>
       <c r="E33" t="n">
-        <v>13.53358370070774</v>
+        <v>13.53363560616303</v>
       </c>
       <c r="F33" t="n">
-        <v>8.007050187199019</v>
+        <v>8.007084404454895</v>
       </c>
       <c r="G33" t="n">
-        <v>93.72108904281706</v>
+        <v>93.72151973317888</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.86161062968597</v>
+        <v>26.8616515539203</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003539221360102516</v>
+        <v>0.003539229873463335</v>
       </c>
       <c r="D34" t="n">
-        <v>112.6134050785188</v>
+        <v>112.6135761868453</v>
       </c>
       <c r="E34" t="n">
-        <v>13.53358370070774</v>
+        <v>13.53363560616303</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.88568293099513</v>
+        <v>28.88572387912012</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>121.7091393459855</v>
+        <v>121.7093104447657</v>
       </c>
       <c r="E35" t="n">
-        <v>13.53358370070774</v>
+        <v>13.53363560616303</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.4223676168102</v>
+        <v>497.4113138374557</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3462.555383406365</v>
+        <v>3462.531005134171</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082105009681445</v>
+        <v>5.082113053466022</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.4223676168102</v>
+        <v>512.4113138374557</v>
       </c>
       <c r="C42" t="n">
-        <v>7.215771168092102</v>
+        <v>7.216926805912202</v>
       </c>
       <c r="D42" t="n">
-        <v>3439.025122043739</v>
+        <v>3438.984333585543</v>
       </c>
       <c r="E42" t="n">
-        <v>6.061807378886369</v>
+        <v>6.062038322480568</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
